--- a/documents/2022.06.03-sprint-003/traduções compliance.xlsx
+++ b/documents/2022.06.03-sprint-003/traduções compliance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Telles\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\leebank\documents\2022.06.03-sprint-003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{631284AB-976B-4912-9E00-2A9480F2E2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672E1F68-6A58-435D-A691-747EE78045FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5E81C5E7-2D1C-45FB-9B1B-A9ADDAD77EB0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E81C5E7-2D1C-45FB-9B1B-A9ADDAD77EB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="1421">
   <si>
     <t>id</t>
   </si>
@@ -2095,6 +2095,2208 @@
   </si>
   <si>
     <t>10.3 The provisions of this Policy shall remain in effect for a period of one year, when it must be reviewed.</t>
+  </si>
+  <si>
+    <t>vixiCsPld18Text1</t>
+  </si>
+  <si>
+    <t>A presente Política foi aprovada pela Diretoria da Vixi Exchange.</t>
+  </si>
+  <si>
+    <t>This Policy has been approved by the Board of Directors of Vixi Exchange.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskTitle</t>
+  </si>
+  <si>
+    <t>POLÍTICA PARA GESTÃO DE RISCOS</t>
+  </si>
+  <si>
+    <t>RISK MANAGEMENT POLICY</t>
+  </si>
+  <si>
+    <t>vixiCSRiskDate</t>
+  </si>
+  <si>
+    <t>vixiCSRiskObjTitle</t>
+  </si>
+  <si>
+    <t>vixiCsRiskObjText</t>
+  </si>
+  <si>
+    <t>Esta Política para Gestão de Riscos (“Política”) tem o objetivo de definir as principais etapas para conscientização, avaliação, monitoramento e gestão de riscos que envolvem a Vixi Exchange, seus Colaboradores e Terceiros.</t>
+  </si>
+  <si>
+    <t>The purpose of this Risk Management Policy ("Policy") is to define the main steps for awareness, assessment, monitoring and management of risks involving Vixi Exchange, its Employees and Third Parties.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskAplTItle</t>
+  </si>
+  <si>
+    <t>vixiCsRiskAplText</t>
+  </si>
+  <si>
+    <t>Aplica-se aos Colaboradores, Terceiros e parceiros de negócios da Vixi Exchange, a partir de</t>
+  </si>
+  <si>
+    <t>Applies to Vixi Exchange Employees, Third Parties and business partners, as of</t>
+  </si>
+  <si>
+    <t>vixiCsRiskDateB</t>
+  </si>
+  <si>
+    <t>vixiCsRiskDefTitle</t>
+  </si>
+  <si>
+    <t>vixiCsRiskDefCol</t>
+  </si>
+  <si>
+    <t>vixiCsRiskDefColText</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> todos os funcionários e empregados da Vixi Exchange, bem como todos que possuam cargo, função, posição ou relação societária, empregatícia, comercial, profissional, contratual ou de confiança com a Vixi Exchange, assim como os estagiários e trainees;</t>
+  </si>
+  <si>
+    <t>all employees and officers of Vixi Exchange, as well as all those who have a corporate, employment, commercial, professional, contractual or trust relationship with Vixi Exchange, as well as interns and trainees;</t>
+  </si>
+  <si>
+    <t>vixiCsRiskDefCom</t>
+  </si>
+  <si>
+    <t>Comitê de Compliance:</t>
+  </si>
+  <si>
+    <t>Compliance Committee:</t>
+  </si>
+  <si>
+    <t>vixiCsRiskDefComText</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> constituído com atribuição de enraizar a cultura de conformidade e ética, a mitigação de riscos e prejuízos e fomentar a observância da legislação vigente;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The company was created with the attribution of entrenching the culture of compliance and ethics, the mitigation of risks and losses, and fostering the observance of the legislation in force;</t>
+  </si>
+  <si>
+    <t>vixiCsRiskDefCon</t>
+  </si>
+  <si>
+    <t>Controles:</t>
+  </si>
+  <si>
+    <t>Controls:</t>
+  </si>
+  <si>
+    <t>vixiCsRiskDefConText</t>
+  </si>
+  <si>
+    <t>quaisquer políticas, normas, procedimentos, atividades e mecanismos desenvolvidos para assegurar que os objetivos de negócios sejam atingidos e que eventos indesejáveis sejam prevenidos, detectados e remediados;</t>
+  </si>
+  <si>
+    <t>any policies, standards, procedures, activities, and mechanisms designed to ensure that business objectives are met and that undesirable events are prevented, detected, and remedied;</t>
+  </si>
+  <si>
+    <t>vixiCsRiskDefPol</t>
+  </si>
+  <si>
+    <t>vixiCsRiskDefPolText</t>
+  </si>
+  <si>
+    <t>a presente Política para Gestão de Riscos.</t>
+  </si>
+  <si>
+    <t>the present Risk Management Policy.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskDefRis</t>
+  </si>
+  <si>
+    <t>Risco:</t>
+  </si>
+  <si>
+    <t>Risk:</t>
+  </si>
+  <si>
+    <t>vixiCsRiskDefRisText</t>
+  </si>
+  <si>
+    <t>é todo evento potencial que pode impactar negativamente o alcance dos objetivos da Vixi Exchange ou de processos de negócio específicos;</t>
+  </si>
+  <si>
+    <t>is every potential event that can negatively impact the achievement of Vixi Exchange's objectives or specific business processes;</t>
+  </si>
+  <si>
+    <t>vixiCsRiskDefTer</t>
+  </si>
+  <si>
+    <t>Terceiros:</t>
+  </si>
+  <si>
+    <t>Third Parties:</t>
+  </si>
+  <si>
+    <t>vixiCsRiskDefTerText</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fornecedores e prestadores de bens e serviços, representantes, agentes intermediários, procuradores, consultores técnicos, despachantes, colaboradores externos e/ou quaisquer outros terceiros que atuem em nome, benefício ou interesse da Vixi Exchange;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suppliers and providers of goods and services, representatives, intermediary agents, attorneys-in-fact, technical consultants, expediters, external collaborators and/or any other third parties acting on behalf, benefit or interest of Vixi Exchange;</t>
+  </si>
+  <si>
+    <t>vixiCsRiskCon</t>
+  </si>
+  <si>
+    <t>vixiCsRiskConTitle</t>
+  </si>
+  <si>
+    <t>4.1. GERENCIAMENTO</t>
+  </si>
+  <si>
+    <t>4.1. MANAGEMENT</t>
+  </si>
+  <si>
+    <t>vixiCsRiskConText1</t>
+  </si>
+  <si>
+    <t>4.1.1. A área de Gestão de Riscos reporta-se ao Comitê de Compliance em reuniões trimestrais e tem como objetivo identificar, avaliar e gerir os riscos inerentes às atividades da Vixi Exchange, por meio do mapeamento e avaliação de riscos, da identificação de oportunidades e do apoio ao negócio no atingimento dos objetivos.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskConText2</t>
+  </si>
+  <si>
+    <t>4.1.2. As informações referentes à perdas e riscos operacionais aos quais a Vixi Exchange está suscetível devem ser documentadas e armazenadas.</t>
+  </si>
+  <si>
+    <t>4.1.2 Information regarding operational losses and risks to which Vixi Exchange is susceptible must be documented and stored.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskConText3</t>
+  </si>
+  <si>
+    <t>4.1.3. Conforme os objetivos do trabalho, assuntos envolvidos e relevância das deficiências identificadas, poderão ser utilizados níveis variados para avaliação de riscos.</t>
+  </si>
+  <si>
+    <t>4.1.3 Depending on the objectives of the work, the issues involved, and the relevance of the deficiencies identified, varying levels of risk assessment may be used.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskConText4</t>
+  </si>
+  <si>
+    <t>4.1.4. Os Riscos capazes de gerar um impacto positivo nas atividades da Vixi Exchange, denominados de oportunidades, serão reportados ao Comitê de Compliance e Gestão de Riscos em bases trimestrais.</t>
+  </si>
+  <si>
+    <t>4.1.4 The Risks capable of generating a positive impact on Vixi Exchange's activities, called opportunities, will be reported to the Compliance and Risk Management Committee on a quarterly basis.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskTipTitle</t>
+  </si>
+  <si>
+    <t>4.2. TIPOS DE RISCOS</t>
+  </si>
+  <si>
+    <t>4.2. TYPES OF RISKS</t>
+  </si>
+  <si>
+    <t>vixiCsRiskTipText</t>
+  </si>
+  <si>
+    <t>4.2.1. Os Riscos são categorizados da seguinte forma:</t>
+  </si>
+  <si>
+    <t>4.2.1 The Risks are categorized as follows:</t>
+  </si>
+  <si>
+    <t>vixiCsRiskTipText2Title</t>
+  </si>
+  <si>
+    <t>4.2.1.1.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskTipText2Ori</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Origem dos Eventos:</t>
+  </si>
+  <si>
+    <t>Source of Events:</t>
+  </si>
+  <si>
+    <t>vixiCsRiskTipText2Det</t>
+  </si>
+  <si>
+    <t>Determinante para a definição da abordagem a ser empregada na resposta ao risco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Determinant for defining the approach to be employed in responding to risk. </t>
+  </si>
+  <si>
+    <t>vixiCsRiskTipText2Ris</t>
+  </si>
+  <si>
+    <t>Os riscos externos</t>
+  </si>
+  <si>
+    <t>External risks</t>
+  </si>
+  <si>
+    <t>vixiCsRiskTipText2Asso</t>
+  </si>
+  <si>
+    <t>são associados ao ambiente macroeconômico, político, social, natural ou setorial em que a organização opera, porém, em geral, não é possível intervir sobre estes eventos que terão, portanto, uma ação predominantemente reativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> are associated with the macroeconomic, political, social, natural or sector environment in which the organization operates, but in general it is not possible to intervene on these events, which will therefore have a predominantly reactive action.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskTipText2Ris2</t>
+  </si>
+  <si>
+    <t>Os riscos internos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Internal risks</t>
+  </si>
+  <si>
+    <t>vixiCsRiskTipText2Sao</t>
+  </si>
+  <si>
+    <t>são originados na estrutura da organização, pelos seus processos, quadro de pessoal ou seu ambiente, tendo como resposta uma ação proativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> originate in the organization's structure, its processes, staff or environment, and the response will be proactive.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskTipText3</t>
+  </si>
+  <si>
+    <t>4.2.1.2.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskTipText3Nat</t>
+  </si>
+  <si>
+    <t>Natureza dos Riscos:</t>
+  </si>
+  <si>
+    <t>Nature of Risks:</t>
+  </si>
+  <si>
+    <t>vixiCsRiskTipText3Per</t>
+  </si>
+  <si>
+    <t>Permite a consolidação dos riscos conforme sua natureza (estratégica, operacional, financeira, compliance) e áreas afetadas, sendo eles:</t>
+  </si>
+  <si>
+    <t>Allows the consolidation of risks according to their nature (strategic, operational, financial, compliance) and affected areas:</t>
+  </si>
+  <si>
+    <t>vixiCsRiskTipText3Ris</t>
+  </si>
+  <si>
+    <t>Riscos Estratégicos:</t>
+  </si>
+  <si>
+    <t>Strategic Risks:</t>
+  </si>
+  <si>
+    <t>vixiCsRiskTipText3Imp</t>
+  </si>
+  <si>
+    <t>impactam a imagem, a reputação, a continuidade das operações, a comunidade, as questões socioambientais, a vida e/ou instalações, bem como, os riscos 5 relacionados aos controles de TI, controles entity-level e ao cumprimento de objetivos de negócio CP, MP, LP. Os riscos estratégicos incluem ainda os controles antifraude relacionados à Alta Direção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> impact image, reputation, continuity of operations, community, socio-environmental issues, life and/or facilities, as well as risks related to IT controls, entity-level controls and the achievement of CP, MP, LP business objectives. Strategic risks also include anti-fraud controls related to Senior Management.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskTipText3Fin</t>
+  </si>
+  <si>
+    <t>Riscos Financeiros/Operacionais:</t>
+  </si>
+  <si>
+    <t>Financial/Operational Risks:</t>
+  </si>
+  <si>
+    <t>vixiCsRiskTipText3Rel</t>
+  </si>
+  <si>
+    <t>relacionados ao uso racional de recursos, funcionamento de controles internos, eficácia dos processos de negócios e exposições financeiras, em nível de processo, incluindo-se os demais controles antifraude.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> related to the rational use of resources, functioning of internal controls, effectiveness of business processes and financial exposures, at the process level, including other anti-fraud controls.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskTipText3Comp</t>
+  </si>
+  <si>
+    <t>Riscos de Compliance:</t>
+  </si>
+  <si>
+    <t>Compliance Risks:</t>
+  </si>
+  <si>
+    <t>vixiCsRiskTipText3Dir</t>
+  </si>
+  <si>
+    <t>impactam diretamente o cumprimento de leis, manuais, normas e regulamentos internos e/ou de autorregulação do setor de atividade da Vixi Exchange, incluindo-se, mas não limitados às leis anticorrupção, antissuborno, reporte de operações suspeitas, prevenção à lavagem de dinheiro e afins.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> directly impact the compliance with laws, manuals, rules and internal regulations and/or self-regulation of the sector in which Vixi Exchange operates, including, but not limited to anti-corruption, anti-bribery, suspicious transaction reporting, anti-money laundering and similar laws.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskResTitle</t>
+  </si>
+  <si>
+    <t>4.3. RESPOSTAS AOS RISCOS</t>
+  </si>
+  <si>
+    <t>4.3. RISK RESPONSES</t>
+  </si>
+  <si>
+    <t>vixiCsRiskResText1</t>
+  </si>
+  <si>
+    <t>4.3.1. A Vixi Exchange mantém estruturas de gerenciamento e Controles internos para gestão e prevenção dos riscos. As áreas internas da Vixi Exchange operam em conjunto com sistemas operacionais e recursos de segurança para a realização da manutenção e da estrutura de gerenciamento de riscos.</t>
+  </si>
+  <si>
+    <t>4.3.1 Vixi Exchange maintains management structures and Internal Controls for risk management and prevention. The internal areas of Vixi Exchange operate in conjunction with operational systems and security resources to carry out the maintenance and risk management structure.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskResText2</t>
+  </si>
+  <si>
+    <t>4.3.2. Os Controles internos serão reavaliados periodicamente para garantia da consistência com a natureza, complexidade e risco das operações realizadas pela Vixi Exchange.</t>
+  </si>
+  <si>
+    <t>4.3.2 The internal controls will be periodically reassessed to ensure consistency with the nature, complexity, and risk of the operations carried out by Vixi Exchange.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskResText3</t>
+  </si>
+  <si>
+    <t>4.3.3. A avaliação dos riscos é realizada de forma conjunta, envolvendo as áreas impactadas e responsáveis pelos processos, avaliando o grau de impacto versus probabilidade de ocorrência para cada risco identificado, para então definir-se o melhor instrumento de proteção, que podem ser:</t>
+  </si>
+  <si>
+    <t>4.3.3 Risk assessment is performed jointly, involving the impacted areas and those responsible for the processes, evaluating the degree of impact versus probability of occurrence for each risk identified, to then define the best protection instrument, which can be:</t>
+  </si>
+  <si>
+    <t>vixiCsRiskResText3Evi</t>
+  </si>
+  <si>
+    <t>Evitar:</t>
+  </si>
+  <si>
+    <t>Avoidance:</t>
+  </si>
+  <si>
+    <t>vixiCsRiskResText3EviText</t>
+  </si>
+  <si>
+    <t>quando se elimina o fato gerador do risco, por exemplo, descontinuando determinado processo ou saindo de mercado específico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> when you eliminate the fact that generates the risk, for example, by discontinuing a certain process or leaving a specific market.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskResText3Red</t>
+  </si>
+  <si>
+    <t>Reduzir:</t>
+  </si>
+  <si>
+    <t>Reduce:</t>
+  </si>
+  <si>
+    <t>vixiCsRiskResText3RedText</t>
+  </si>
+  <si>
+    <t>quando são aplicáveis os controles internos (ex. aprovação, revisão, segregação de funções, reconciliação, perfis de acesso etc.) para que o dano potencial do risco seja substancialmente reduzido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> when internal controls (e.g. approval, review, segregation of duties, reconciliation, access profiles, etc.) are applicable so that the potential damage of the risk is substantially reduced.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskResText3Comp</t>
+  </si>
+  <si>
+    <t>Compartilhar:</t>
+  </si>
+  <si>
+    <t>Sharing:</t>
+  </si>
+  <si>
+    <t>vixiCsRiskResText3CompText</t>
+  </si>
+  <si>
+    <t>quando o risco é dividido com uma contraparte externa. Exemplos de compartilhamento de riscos são as operações de hedge e apólices de seguro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> when the risk is shared with an external counterparty. Examples of risk sharing are hedging transactions and insurance policies.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskResText3Ace</t>
+  </si>
+  <si>
+    <t>Aceitar:</t>
+  </si>
+  <si>
+    <t>Accept:</t>
+  </si>
+  <si>
+    <t>vixiCsRiskResText3AceText</t>
+  </si>
+  <si>
+    <t>quando o impacto versus probabilidade do risco é considerado irrelevante, toma- se a decisão de aceitar o risco, pois o custo da ação de controle seria maior do que o 6 próprio risco potencial envolvido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> when the impact versus probability of the risk is considered irrelevant, the decision is made to accept the risk, since the cost of the control action would be greater than the potential risk itself.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskParTitle</t>
+  </si>
+  <si>
+    <t>4.4. Para o estabelecimento de mecanismo de Controle adequado para a gestão de riscos, a Vixi Exchange contará com um procedimento dividido em linhas de defesa:</t>
+  </si>
+  <si>
+    <t>4.4 For the establishment of an adequate Control mechanism for risk management, Vixi Exchange will have a procedure divided into lines of defense:</t>
+  </si>
+  <si>
+    <t>vixiCsRiskParTitle2</t>
+  </si>
+  <si>
+    <t>Primeira linha de defesa – Áreas Administrativas e de Negócios.</t>
+  </si>
+  <si>
+    <t>First line of defense - Administrative and Business Areas.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskParTitle2Text</t>
+  </si>
+  <si>
+    <t>Os Colaboradores e Terceiros são responsáveis por mapear e gerir os Riscos atrelados às suas atividades, implantando controles preventivos e detectivos em seus processos de trabalho;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Employees and Third Parties are responsible for mapping and managing the Risks linked to their activities, implementing preventive and detective controls in their work processes;</t>
+  </si>
+  <si>
+    <t>vixiCsRiskParTitle3</t>
+  </si>
+  <si>
+    <t>Segunda linha de defesa – Gestão de Riscos, Controles e Compliance.</t>
+  </si>
+  <si>
+    <t>Second line of defense - Risk Management, Controls and Compliance.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskParTitle3Text</t>
+  </si>
+  <si>
+    <t>As áreas de gestão de risco e controles internos auxiliam os gestores na identificação dos riscos e no desenvolvimento de controles para a mitigação de suas consequências. Nessa linha de defesa, situa-se também o Compliance, responsável por centralizar as iniciativas de gestão do Risco de Conformidade;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The areas of risk management and internal controls assist managers in identifying risks and developing controls to mitigate their consequences. This line of defense also includes Compliance, which is responsible for centralizing Compliance Risk management initiatives;</t>
+  </si>
+  <si>
+    <t>vixiCsRiskParTitle4</t>
+  </si>
+  <si>
+    <t>Terceira linha de defesa – Auditoria Interna.</t>
+  </si>
+  <si>
+    <t>Third line of defense - Internal Audit.</t>
+  </si>
+  <si>
+    <t>vixiCsRiskParTitle4Text</t>
+  </si>
+  <si>
+    <t>A terceira linha de defesa abrange a Auditoria Interna da Vixi Exchange, responsável por empreender avaliações independentes quanto à eficácia e eficiência das áreas administrativas e de negócio e do gerenciamento de riscos. As auditorias serão realizadas anualmente ou em periodicidade estabelecida pelo Comitê de Compliance, e as conclusões serão consubstanciadas em relatório específico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The third line of defense covers Vixi Exchange's Internal Audit, responsible for undertaking independent evaluations as to the effectiveness and efficiency of the administrative and business areas and risk management. The audits will be carried out annually or at intervals established by the Compliance Committee, and the conclusions will be substantiated in a specific report.</t>
+  </si>
+  <si>
+    <t>vixiCsRisk4.8</t>
+  </si>
+  <si>
+    <t>4.8. O gerenciamento dos riscos e a adoção de medidas de remediação como resposta é de responsabilidade de todos os gestores.</t>
+  </si>
+  <si>
+    <t>4.8. Risk management and the adoption of remedial measures in response is the responsibility of all managers.</t>
+  </si>
+  <si>
+    <t>vixiCsRisk4.9</t>
+  </si>
+  <si>
+    <t>4.9. Quaisquer dúvidas sobre essa Política ou sobre o gerenciamento de riscos, devem ser esclarecidas junto à área de Compliance, por meio do e-mail: compliance@vixiexchange.com.br.</t>
+  </si>
+  <si>
+    <t>4.9. Any questions about this Policy or risk management should be clarified with the Compliance area, by means of the e-mail: compliance@vixiexchange.com.br.</t>
+  </si>
+  <si>
+    <t>vixiCsRisk5</t>
+  </si>
+  <si>
+    <t>5. RESPONSABILIDADES</t>
+  </si>
+  <si>
+    <t>5. RESPONSIBILITIES</t>
+  </si>
+  <si>
+    <t>vixiCsRisk5.1</t>
+  </si>
+  <si>
+    <t>5.1. A Vixi Exchange definirá, dentre seus Colaboradores, diretor responsável pelo gerenciamento de riscos, bem como profissionais responsáveis para cada fase de avaliação, monitoramento e mitigação.</t>
+  </si>
+  <si>
+    <t>5.1. Vixi Exchange will define, among its Employees, a director responsible for risk management, as well as professionals responsible for each phase of assessment, monitoring and mitigation.</t>
+  </si>
+  <si>
+    <t>vixiCsPldTile</t>
+  </si>
+  <si>
+    <t>POLÍTICA DE PREVENÇÃO À LAVAGEM DE DINHEIRO E COMBATE AO FINANCIAMENTO DO TERRORISMO</t>
+  </si>
+  <si>
+    <t>POLICY TO PREVENT MONEY LAUNDERING AND COMBAT THE FINANCING OF TERRORISM</t>
+  </si>
+  <si>
+    <t>vixiCsPldDate</t>
+  </si>
+  <si>
+    <t>vixiCsPld1</t>
+  </si>
+  <si>
+    <t>vixiCsPld1Text</t>
+  </si>
+  <si>
+    <t>Estabelecer padrões de conduta e controles quanto à prevenção e combate à lavagem de dinheiro e ao financiamento do terrorismo, em linha com a legislação aplicável e as melhores práticas de mercado.</t>
+  </si>
+  <si>
+    <t>Establish standards of conduct and controls as to the prevention and combat of money laundering and the financing of terrorism, in line with the applicable legislation and the best market practices.</t>
+  </si>
+  <si>
+    <t>vixiCsPld2</t>
+  </si>
+  <si>
+    <t>vixiCsPld2Text1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplica-se a todos os Colaboradores e Terceiros associados à Vixi Exchange, a partir de </t>
+  </si>
+  <si>
+    <t>It applies to all Employees and Third Parties associated with Vixi Exchange, as of</t>
+  </si>
+  <si>
+    <t>vixiCsPld2B</t>
+  </si>
+  <si>
+    <t>vixiCsPld2Text2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A presente Política será renovada anualmente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This Policy shall be renewed annually.</t>
+  </si>
+  <si>
+    <t>vixiCsPld3</t>
+  </si>
+  <si>
+    <t>vixiCsPld3LiTitle1</t>
+  </si>
+  <si>
+    <t>Circular BCB 3.978:</t>
+  </si>
+  <si>
+    <t>BCB Circular 3.978:</t>
+  </si>
+  <si>
+    <t>vixiCsPld3LiText1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a Circular nº 3.978, de 23 de janeiro de 2020, do Banco Central do Brasil;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Circular 3.978, of January 23, 2020, of the Central Bank of Brazil;</t>
+  </si>
+  <si>
+    <t>vixiCsPld3LiTitle2</t>
+  </si>
+  <si>
+    <t>vixiCsPld3LiText2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> todos os funcionários e empregados da Vixi Exchange, bem como todos que possuam cargo, função, posição, ou relação societária, empregatícia, comercial, profissional, contratual ou de confiança com a Vixi Exchange, assim como os estagiários e trainees;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> all the employees of Vixi Exchange, as well as all those who have a post, function, position, or corporate, employment, commercial, professional, contractual or trust relationship with Vixi Exchange, as well as interns and trainees;</t>
+  </si>
+  <si>
+    <t>vixiCsPld3LiTitle3</t>
+  </si>
+  <si>
+    <t>vixiCsPld3LiText3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trata-se de grupo formado pelos membros da diretoria da Vixi Exchange. A Diretoria tem por função acompanhar os projetos da Companhia e seus respectivos resultados, bem como deliberar e direcionar os referidos projetos com base no melhor interesse da Companhia;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This is a group made up of the members of the Board of Directors of Vixi Exchange. The Executive Board has the function of monitoring the Company's projects and their respective results, as well as deliberating and directing the referred projects based on the Company's best interest;</t>
+  </si>
+  <si>
+    <t>vixiCsPld3LiTitle4</t>
+  </si>
+  <si>
+    <t>Parceiro:</t>
+  </si>
+  <si>
+    <t>Partner:</t>
+  </si>
+  <si>
+    <t>vixiCsPld3LiText4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pessoas físicas ou jurídicas que mantêm negócios com a Vixi Exchange;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> individuals or companies that do business with Vixi Exchange;</t>
+  </si>
+  <si>
+    <t>vixiCsPld3LiTitle5</t>
+  </si>
+  <si>
+    <t>PLD/CFT:</t>
+  </si>
+  <si>
+    <t>vixiCsPld3LiText5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> prevenção à lavagem de dinheiro e combate ao financiamento do terrorismo;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preventing money laundering and combating the financing of terrorism;</t>
+  </si>
+  <si>
+    <t>vixiCsPld3LiTitle6</t>
+  </si>
+  <si>
+    <t>vixiCsPld3LiText6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a presente Política de Prevenção à Lavagem de Dinheiro e Combate ao Financiamento do Terrorismo;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> this Policy on Preventing Money Laundering and Combating the Financing of Terrorism;</t>
+  </si>
+  <si>
+    <t>vixiCsPld3LiTitle7</t>
+  </si>
+  <si>
+    <t>vixiCsPld3LiText7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fornecedores e prestadores de bens e serviços, representantes, agentes intermediários, procuradores, consultores técnicos, despachantes, colaboradores externos e/ou quaisquer outros terceiros que atuem em nome, benefício ou interesse da Vixi Exchange.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> suppliers and providers of goods and services, representatives, intermediary agents, attorneys-in-fact, technical consultants, expediters, external collaborators and/or any other third parties acting on behalf, benefit or interest of Vixi Exchange.</t>
+  </si>
+  <si>
+    <t>vixiCsPld4</t>
+  </si>
+  <si>
+    <t>4. CONCEITOS PRELIMINARES</t>
+  </si>
+  <si>
+    <t>4. PRELIMINARY CONCEPTS</t>
+  </si>
+  <si>
+    <t>vixiCsPld41</t>
+  </si>
+  <si>
+    <t>4.1. LAVAGEM DE DINHEIRO (LD)</t>
+  </si>
+  <si>
+    <t>4.1. MONEY LAUNDERING (CD)</t>
+  </si>
+  <si>
+    <t>vixiCsPld411</t>
+  </si>
+  <si>
+    <t>4.1.1. A Diretoria da Vixi Exchange está altamente comprometida com o programa de Compliance e demonstra seu comprometimento com o combate à lavagem de dinheiro e ao financiamento do terrorismo incorporando o assunto em seus discursos, assim como tornando o tema “compliance” pauta de suas reuniões e direcionador para tomadas de decisões.</t>
+  </si>
+  <si>
+    <t>4.1.1 The Board of Directors of Vixi Exchange is highly committed to the Compliance program and demonstrates its commitment to the fight against money laundering and the financing of terrorism by incorporating the subject in its speeches, as well as making the topic of compliance an agenda for its meetings and a guideline for decision-making.</t>
+  </si>
+  <si>
+    <t>vixiCsPld412</t>
+  </si>
+  <si>
+    <t>4.1.2. A presente Política visa a coibir quaisquer práticas de lavagem de dinheiro e de financiamento do terrorismo, em qualquer das etapas abaixo descritas:</t>
+  </si>
+  <si>
+    <t>4.1.2 This Policy aims to prevent any money laundering and terrorist financing practices, in any of the stages described below:</t>
+  </si>
+  <si>
+    <t>vixiCsPld412LiTitle1</t>
+  </si>
+  <si>
+    <t>Colocação:</t>
+  </si>
+  <si>
+    <t>Placement:</t>
+  </si>
+  <si>
+    <t>vixiCsPld412LiText1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a etapa em que o criminoso introduz o dinheiro obtido ilicitamente no sistema econômico mediante depósitos, compra de instrumentos negociáveis ou bens. Trata-se da remoção do dinheiro do local em que foi ilegalmente adquirido e sua inclusão, por exemplo, no mercado financeiro;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the stage at which the criminal introduces the illicitly obtained money into the economic system through deposits, purchase of negotiable instruments or goods. This is the removal of the money from the place where it was illegally acquired and its inclusion, for example, in the financial market;</t>
+  </si>
+  <si>
+    <t>vixiCsPld412LiTitle2</t>
+  </si>
+  <si>
+    <t>Ocultação:</t>
+  </si>
+  <si>
+    <t>Concealment:</t>
+  </si>
+  <si>
+    <t>vixiCsPld412LiText2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> o momento em que o criminoso realiza transações suspeitas caracterizadoras do crime de lavagem. Nesta fase, transações complexas se configuram para desassociar a fonte ilegal do dinheiro, dificultando o rastreamento da origem pelas autoridades. O objetivo é “quebrar” a cadeia de evidências ante o risco de investigações sobre a origem dos recursos;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the moment in which the criminal conducts suspicious transactions that characterize the crime of laundering. In this phase, complex transactions are configured to disassociate the illegal source of the money, making it difficult for the authorities to trace its origin. The goal is to "break" the chain of evidence before the risk of investigations on the origin of the resources;</t>
+  </si>
+  <si>
+    <t>vixiCsPld412LiTitle3</t>
+  </si>
+  <si>
+    <t>Integração:</t>
+  </si>
+  <si>
+    <t>Integration:</t>
+  </si>
+  <si>
+    <t>vixiCsPld412LiText3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> os ativos são incorporados formalmente ao sistema econômico e financeiro. A partir deste momento, o dinheiro recebe aparência lícita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The assets are formally incorporated into the economic and financial system. From this moment on, the money is given a licit appearance.</t>
+  </si>
+  <si>
+    <t>vixiCsPld413</t>
+  </si>
+  <si>
+    <t>4.1.3. [Corretoras de criptoativos], como a Vixi Exchange, podem ser utilizadas inadvertidamente como intermediárias em algum processo de ocultação de recursos procedentes de atividades criminosas, sobretudo na segunda fase do processo de lavagem de dinheiro, na qual o objetivo é “quebrar” a cadeia de evidências sobre a origem do dinheiro (rastreabilidade).</t>
+  </si>
+  <si>
+    <t>4.1.3 [Crypto-active brokerages], such as Vixi Exchange, can be inadvertently used as intermediaries in some concealment process of criminal proceeds, especially in the second phase of the money laundering process, in which the goal is to "break" the chain of evidence about the origin of the money (traceability).</t>
+  </si>
+  <si>
+    <t>vixiCsPld42</t>
+  </si>
+  <si>
+    <t>4.2. FINANCIAMENTO AO TERRORISMO (FT)</t>
+  </si>
+  <si>
+    <t>4.2. FINANCING OF TERRORISM (FT)</t>
+  </si>
+  <si>
+    <t>vixiCsPld421</t>
+  </si>
+  <si>
+    <t>4.2.1. Financiamento do terrorismo é o apoio financeiro, por qualquer meio, ao terrorismo ou àqueles que o incentivam, planejam ou cometem. Tem como objetivo fornecer fundos ou capital para atividades terroristas.</t>
+  </si>
+  <si>
+    <t>4.2.1 Terrorist financing is the financial support, by any means, of terrorism or those who encourage, plan, or commit it. It is intended to provide funds or capital for terrorist activities.</t>
+  </si>
+  <si>
+    <t>vixiCsPld422</t>
+  </si>
+  <si>
+    <t>4.2.2. Essa arrecadação de fundos ou capital pode acontecer de diversas formas, tanto a partir de fontes legais (tais como contribuições associativas, doações ou lucros de atividades comerciais) ou a partir de fontes criminosas, como o tráfico de drogas, o contrabando de armas, a prostituição, bens e serviços tomados indevidamente, crime organizado, fraude, sequestro, extorsão etc.</t>
+  </si>
+  <si>
+    <t>vixiCsPld423</t>
+  </si>
+  <si>
+    <t>4.2.3. A luta contra o financiamento do terrorismo está intimamente ligada ao combate à lavagem de dinheiro, já que as técnicas utilizadas para lavar o dinheiro são essencialmente as mesmas utilizadas para ocultar a origem e o destino do financiamento do terrorismo, para que, assim, as fontes continuem a enviar montantes sem a devida identificação.</t>
+  </si>
+  <si>
+    <t>4.2.3 The fight against terrorist financing is closely linked to the fight against money laundering, since the techniques used to launder money are essentially the same as those used to conceal the origin and destination of terrorist financing, so that the sources continue to send amounts without being properly identified.</t>
+  </si>
+  <si>
+    <t>vixiCsPld5</t>
+  </si>
+  <si>
+    <t>vixiCsPld51</t>
+  </si>
+  <si>
+    <t>5.1. É de reponsabilidade da Diretoria Executiva promover e disseminar a Política para a estrutura organizacional, clientes, Parceiros, sócios e prestadores de serviços da Vixi Exchange, assim como as boas práticas para monitoramento e identificação preventiva de eventuais ilícitos.</t>
+  </si>
+  <si>
+    <t>5.1 The Executive Board is responsible for promoting and disseminating the Policy to the organizational structure, clients, Partners, partners and service providers of Vixi Exchange, as well as the good practices for monitoring and preventive identification of possible illicit acts.</t>
+  </si>
+  <si>
+    <t>vixiCsPld52</t>
+  </si>
+  <si>
+    <t>5.2. A Diretoria Executiva deverá adotar mecanismos de comunicação, informação e conscientização da importância da PLD/CFT dentro da organização, inclusive provendo a estrutura organizacional e todas as ferramentas tecnológicas para as diligências que decorrem desta Política.</t>
+  </si>
+  <si>
+    <t>5.2 The Executive Board shall adopt mechanisms for communication, information, and awareness of the importance of PLD/CFT within the organization, including providing the organizational structure and all the technological tools for the diligences arising from this Policy.</t>
+  </si>
+  <si>
+    <t>vixiCsPld53</t>
+  </si>
+  <si>
+    <t>5.3. Caberá à Diretoria Executiva instituir o Comitê de Compliance, composto por profissionais das áreas operacionais, legal e Compliance.</t>
+  </si>
+  <si>
+    <t>5.3 The Executive Board will be responsible for establishing the Compliance Committee, composed of professionals from the operational, legal, and Compliance areas.</t>
+  </si>
+  <si>
+    <t>vixiCsPld54</t>
+  </si>
+  <si>
+    <t>5.4. O Comitê de Compliance é responsável por monitorar as atividades destacadas na presente Política e nos procedimentos relacionados, assim como executar as diligências necessárias para monitoramento e identificação de riscos relacionados à PLD/CFT.</t>
+  </si>
+  <si>
+    <t>5.4 The Compliance Committee is responsible for monitoring the activities outlined in this Policy and related procedures, as well as performing the necessary diligence to monitor and identify risks related to PLD/CFT.</t>
+  </si>
+  <si>
+    <t>vixiCsPld55</t>
+  </si>
+  <si>
+    <t>5.5. A área de Compliance é responsável pelo monitoramento das atividades operacionais e financeiras da Vixi Exchange. Para eventuais desvios e constatações, a área de Compliance deverá comunicar oportunamente o Comitê de Compliance, que dará as devidas tratativas.</t>
+  </si>
+  <si>
+    <t>5.5 The Compliance area is responsible for monitoring the operational and financial activities of Vixi Exchange. For any deviations and findings, the Compliance area shall timely notify the Compliance Committee, which shall deal with them accordingly.</t>
+  </si>
+  <si>
+    <t>vixiCsPld56</t>
+  </si>
+  <si>
+    <t>5.6. Constatado desvios e/ou tentativas de práticas de lavagem de dinheiro e de estruturas de financiamento do terrorismo, será de responsabilidade da Diretoria Executiva, com o apoio da área de Compliance, comunicar, imediatamente, as autoridades competentes.</t>
+  </si>
+  <si>
+    <t>5.6 If deviations and/or attempts of money laundering practices and terrorist financing structures are detected, it will be the Executive Board's responsibility, with the support of the Compliance area, to immediately notify the competent authorities.</t>
+  </si>
+  <si>
+    <t>vixiCsPld57</t>
+  </si>
+  <si>
+    <t>5.7. Todos os Colaboradores da Vixi Exchange são responsáveis por monitorar suas atividades de risco por meio dos instrumentos mitigatórios. Em casos de constatação de desvio e/ou tentativa de ações de lavagem de dinheiro e formação de estruturas de terrorismo, o Colaborador deverá comunicar imediatamente sua liderança e área de Compliance, que iniciará suas diligências.</t>
+  </si>
+  <si>
+    <t>5.7 All Vixi Exchange Collaborators are responsible for monitoring their risk activities through mitigation instruments. In cases where deviation and/or attempted money laundering actions and formation of terrorist structures are found, the Collaborator must immediately inform his or her leadership and Compliance area, which will initiate investigations.</t>
+  </si>
+  <si>
+    <t>vixiCsPld6</t>
+  </si>
+  <si>
+    <t>6. CULTURA ORGANIZACIONAL</t>
+  </si>
+  <si>
+    <t>6. ORGANIZATIONAL CULTURE</t>
+  </si>
+  <si>
+    <t>vixiCsPld61</t>
+  </si>
+  <si>
+    <t>6.1. A Diretoria da Vixi Exchange está altamente comprometida com seu programa de compliance. A Diretoria demonstra seu comprometimento com PLD/CFT incorporando o assunto em seus discursos, bem como tornando o tema “compliance” pauta de suas reuniões.</t>
+  </si>
+  <si>
+    <t>6.1 The Board of Directors of Vixi Exchange is highly committed to its compliance program. The Board demonstrates its commitment to PLD/CFT by incorporating the subject in its speeches, as well as by making the topic of compliance an agenda for its meetings.</t>
+  </si>
+  <si>
+    <t>vixiCsPld62</t>
+  </si>
+  <si>
+    <t>6.2. Treinamentos de compliance que abordem temas como PLD/CFT, ética, prevenção à corrupção, prevenção à fraude, segurança da informação, dentre outros, serão ministrados, no mínimo, anualmente aos Colaboradores. Aos Terceiros, os treinamentos serão ministrados conforme demanda.</t>
+  </si>
+  <si>
+    <t>6.2 Compliance training covering topics such as PLD/CFT, ethics, corruption prevention, fraud prevention, information security, among others, will be given at least annually to Employees. For Third Parties, training will be given according to demand.</t>
+  </si>
+  <si>
+    <t>vixiCsPld63</t>
+  </si>
+  <si>
+    <t>6.3. Os treinamentos acima mencionados servem para a promoção de cultura organizacional ética e de PLD/CFT da Vixi Exchange.</t>
+  </si>
+  <si>
+    <t>6.3 The aforementioned trainings are for the promotion of Vixi Exchange's ethical organizational culture and PLD/CFT.</t>
+  </si>
+  <si>
+    <t>vixiCsPld64</t>
+  </si>
+  <si>
+    <t>6.4. Todas as ações para engajamento do time Vixi Exchange são respaldadas pelo cumprimento do Código de Ética, a qual é submetido para conhecimento de todos os Colaboradores, Terceiros, líderes e Diretoria Executiva.</t>
+  </si>
+  <si>
+    <t>6.4 All actions to engage the Vixi Exchange team are supported by compliance with the Code of Ethics, which is submitted for the knowledge of all Collaborators, Third Parties, leaders, and the Executive Board.</t>
+  </si>
+  <si>
+    <t>vixiCsPld7</t>
+  </si>
+  <si>
+    <t>7. DIRETRIZES E CONTROLES-CHAVE</t>
+  </si>
+  <si>
+    <t>7. GUIDELINES AND KEY CONTROLS</t>
+  </si>
+  <si>
+    <t>vixiCsPld71</t>
+  </si>
+  <si>
+    <t>7.1. Com o objetivo de garantir que a Vixi Exchange não seja utilizada para práticas de lavagem de dinheiro e de financiamento do terrorismo, os Colaboradores deverão aplicar todos os 7 esforços possíveis para determinar a verdadeira identidade de todos os clientes/parceiros que solicitam os produtos e/ou serviços da Vixi Exchange.</t>
+  </si>
+  <si>
+    <t>7.1 In order to ensure that Vixi Exchange is not used for money laundering and terrorist financing practices, Employees shall apply all possible efforts to determine the true identity of all customers/partners ordering Vixi Exchange products and/or services.</t>
+  </si>
+  <si>
+    <t>vixiCsPld72</t>
+  </si>
+  <si>
+    <t>7.2. Estão terminantemente proibidas as transações comerciais com terceiros que deixem de apresentar comprovação de identidade ou qualquer outro documento e/ou informações relevantes requeridas pela empresa para seu cadastramento.</t>
+  </si>
+  <si>
+    <t>7.2 Business transactions with third parties who fail to present proof of identity or any other document and/or relevant information required by the company for their registration are strictly forbidden.</t>
+  </si>
+  <si>
+    <t>vixiCsPld73</t>
+  </si>
+  <si>
+    <t>7.3. A Vixi Exchange conduz seus negócios em conformidade com os mais elevados padrões éticos, observando todas as leis e regulamentos aplicáveis às suas atividades e as melhores práticas de mercado, especialmente no que tange à PLD/CFT. Para tanto, os seguintes aspectos sempre são observados e executados:</t>
+  </si>
+  <si>
+    <t>7.3 Vixi Exchange conducts its business in compliance with the highest ethical standards, observing all laws and regulations applicable to its activities and the best market practices, especially regarding PLD/CFT. To this end, the following aspects are always observed and enforced:</t>
+  </si>
+  <si>
+    <t>vixiCsPld73Li1</t>
+  </si>
+  <si>
+    <t>Matriz de responsabilidades dos integrantes de cada nível hierárquico;</t>
+  </si>
+  <si>
+    <t>Responsibility matrix of the members of each hierarchical level;</t>
+  </si>
+  <si>
+    <t>vixiCsPld73Li2</t>
+  </si>
+  <si>
+    <t>Avaliação interna dos riscos de ocorrência da prática dos crimes supracitados no que tange a clientes, Colaboradores e Terceiros;</t>
+  </si>
+  <si>
+    <t>Internal evaluation of the risks of occurrence of the aforementioned crimes in relation to clients, Collaborators and Third Parties;</t>
+  </si>
+  <si>
+    <t>vixiCsPld73Li3</t>
+  </si>
+  <si>
+    <t>Definição dos critérios e atividades para seleção, treinamento e avaliação periódica dos Colaboradores, em linha com as diretrizes estabelecidas na presente Política;</t>
+  </si>
+  <si>
+    <t>Definition of the criteria and activities for selection, training, and periodic evaluation of Collaborators, in line with the guidelines established in this Policy;</t>
+  </si>
+  <si>
+    <t>vixiCsPld73Li4</t>
+  </si>
+  <si>
+    <t>Avaliação interna dos riscos de ocorrência da prática dos crimes supracitados no que tange os próprios produtos e serviços oferecidos pela Vixi Exchange;</t>
+  </si>
+  <si>
+    <t>Internal evaluation of the risks of occurrence of the aforementioned crimes regarding the products and services offered by Vixi Exchange;</t>
+  </si>
+  <si>
+    <t>vixiCsPld73Li5</t>
+  </si>
+  <si>
+    <t>Práticas para análise das operações e identificação de operações suspeitas;</t>
+  </si>
+  <si>
+    <t>Practices for analyzing operations and identifying suspicious transactions;</t>
+  </si>
+  <si>
+    <t>vixiCsPld73Li6</t>
+  </si>
+  <si>
+    <t>Confirmação de informações cadastrais e identificação de beneficiários finais;</t>
+  </si>
+  <si>
+    <t>Confirmation of registration information and identification of final beneficiaries;</t>
+  </si>
+  <si>
+    <t>vixiCsPld73Li7</t>
+  </si>
+  <si>
+    <t>Procedimentos para a identificação de Pessoa Exposta Politicamente – PEP, bem como a diferenciação em sua análise, em conformidade com o artigo 19 da Circular BCB 3.978, a título de melhores práticas;</t>
+  </si>
+  <si>
+    <t>Procedures for the identification of Politically Exposed Persons - PEP, as well as the differentiation in their analysis, in accordance with article 19 of BCB Circular 3,978, as best practices;</t>
+  </si>
+  <si>
+    <t>vixiCsPld73Li8</t>
+  </si>
+  <si>
+    <t>Instruções para o início de relacionamento com instituições financeiras, representantes ou correspondentes no exterior, especialmente em países, territórios e dependências que não adotam procedimentos de registro e controle similares aos definidos nesta Política;</t>
+  </si>
+  <si>
+    <t>Instructions for starting a relationship with financial institutions, representatives or correspondents abroad, especially in countries, territories and dependencies that do not adopt registration and control procedures similar to those defined in this Policy;</t>
+  </si>
+  <si>
+    <t>vixiCsPld73Li9</t>
+  </si>
+  <si>
+    <t>Instruções de comunicação aos órgãos competentes quanto às informações requeridas nas regulamentações vigentes, em especial quanto a suspeitas relacionadas à lavagem de dinheiro e ao financiamento de atividades terroristas; e</t>
+  </si>
+  <si>
+    <t>Reporting instructions to the competent bodies as to the information required in the regulations in force, especially as to suspicions related to money laundering and the financing of terrorist activities; and</t>
+  </si>
+  <si>
+    <t>vixiCsPld73Li10</t>
+  </si>
+  <si>
+    <t>Pontos de atenção no cadastramento dos clientes e parceiros de negócios, detalhado de forma completa no ato do cadastro e aprovação de propostas.</t>
+  </si>
+  <si>
+    <t>Points of attention in the registration of customers and business partners, detailed in full at the time of registration and approval of proposals.</t>
+  </si>
+  <si>
+    <t>vixiCsPld74</t>
+  </si>
+  <si>
+    <t>7.4. Todos os procedimentos de PLD/CFT serão tratados de forma mais minuciosa em documento apartado formalizado.</t>
+  </si>
+  <si>
+    <t>7.4 All PLD/CFT procedures will be treated in more detail in a separate formalized document.</t>
+  </si>
+  <si>
+    <t>vixiCsPld8</t>
+  </si>
+  <si>
+    <t>8. PROCEDIMENTOS PARA CONHECER COLABORADORES (KYE)</t>
+  </si>
+  <si>
+    <t>8. PROCEDURES FOR MEETING COLLABORATORS (KYE)</t>
+  </si>
+  <si>
+    <t>vixiCsPld81</t>
+  </si>
+  <si>
+    <t>8.1. Os controles de prevenção funcionam adequadamente apenas se todos os Colaboradores estiverem conscientes de sua importância e de como devem ser operacionalizados. Para tanto, é fundamental que todos conheçam as normas externas, normas internas e controles em operação relativos à PLD/CFT.</t>
+  </si>
+  <si>
+    <t>8.1. Prevention controls only work properly if all employees are aware of their importance and how they should be operated. To this end, it is essential that everyone is aware of the external regulations, internal regulations and controls in operation relating to PLD/CFT.</t>
+  </si>
+  <si>
+    <t>vixiCsPld82</t>
+  </si>
+  <si>
+    <t>8.2. Os procedimentos “conheça-seu-funcionário” (Know Your Employee – KYE) são rotinas de trabalho, incluindo as respectivas ferramentas necessárias para sua execução, que visam propiciar à instituição um adequado conhecimento sobre seus Colaboradores, principalmente no que tange aos seguintes aspectos:</t>
+  </si>
+  <si>
+    <t>8.2 The "know-your-employee (KYE)" procedures are work routines, including the respective tools necessary for their execution, which aim at providing the institution with an adequate knowledge about its Employees, mainly concerning the following aspects:</t>
+  </si>
+  <si>
+    <t>vixiCsPld82Li1</t>
+  </si>
+  <si>
+    <t>Foco na identificação de fraudes e conivência com a prática de crimes;</t>
+  </si>
+  <si>
+    <t>Focus on identifying fraud and collusion in the commission of crimes;</t>
+  </si>
+  <si>
+    <t>vixiCsPld82Li2</t>
+  </si>
+  <si>
+    <t>Alteração inusitada nos padrões de vida e comportamento;</t>
+  </si>
+  <si>
+    <t>Unusual change in patterns of life and behavior;</t>
+  </si>
+  <si>
+    <t>vixiCsPld82Li3</t>
+  </si>
+  <si>
+    <t>Atenção especial com Colaboradores envolvidos em processos mais vulneráveis; e</t>
+  </si>
+  <si>
+    <t>Special attention to employees involved in more vulnerable processes; and</t>
+  </si>
+  <si>
+    <t>vixiCsPld82Li4</t>
+  </si>
+  <si>
+    <t>Modificação inusitada do resultado operacional do Colaborador.</t>
+  </si>
+  <si>
+    <t>Unusual change in the Collaborator's operating result.</t>
+  </si>
+  <si>
+    <t>vixiCsPld83</t>
+  </si>
+  <si>
+    <t>8.3. Para toda e qualquer contratação deverá ser seguido procedimento de análise e coleta de documentação pela área de RH. Para áreas/processos de maior vulnerabilidade, deverão ser efetuadas análises mais detalhadas do profissional, nos termos do Procedimento de Conheça seu Funcionário. As análises, bem como seus resultados, são de responsabilidade da área de Compliance e deverão ser mantidas sob confidencialidade.</t>
+  </si>
+  <si>
+    <t>8.3 For each and every hiring, the procedure of analysis and collection of documentation by the HR area must be followed. For areas/processes of greater vulnerability, more detailed analyses of the professional should be carried out, under the terms of the Meet Your Employee Procedure. The analyses, as well as their results, are the responsibility of the Compliance area and must be kept confidential.</t>
+  </si>
+  <si>
+    <t>vixiCsPld9</t>
+  </si>
+  <si>
+    <t>9. PROCEDIMENTOS PARA CONHECER PRODUTOS E SERVIÇOS (KYPS)</t>
+  </si>
+  <si>
+    <t>9. PROCEDURES TO KNOW PRODUCTS AND SERVICES (KYPS)</t>
+  </si>
+  <si>
+    <t>vixiCsPld91</t>
+  </si>
+  <si>
+    <t>9.1. Todos os produtos e serviços ofertados pela Vixi Exchange serão analisados segundo seu risco de utilização para lavagem de dinheiro e financiamento do terrorismo.</t>
+  </si>
+  <si>
+    <t>9.1 All products and services offered by Vixi Exchange will be analyzed according to their risk of use for money laundering and terrorism financing.</t>
+  </si>
+  <si>
+    <t>vixiCsPld92</t>
+  </si>
+  <si>
+    <t>9.2. O risco do produto ou serviço será analisado conjuntamente com o risco do cliente e/ou parceiro que utilizá-lo.</t>
+  </si>
+  <si>
+    <t>9.2 The risk of the product or service will be analyzed jointly with the risk of the customer and/or partner who uses it.</t>
+  </si>
+  <si>
+    <t>vixiCsPld93</t>
+  </si>
+  <si>
+    <t>9.3. O Procedimento de KYPS compreenderá a avaliação e a análise prévia de novos e produtos e serviços, bem como a utilização de novas tecnologias, tendo em vista o risco de lavagem de dinheiro e de financiamento do terrorismo. No âmbito dessa análise, a área de Compliance avaliará se a presente Política está adequada e suficiente para a oferta do novo produto ou serviço e/ou utilização da nova tecnologia pretendida.</t>
+  </si>
+  <si>
+    <t>9.3 The KYPS Procedure will comprise the assessment and previous analysis of new products and services, as well as the use of new technologies, taking into account the risk of money laundering and terrorism financing. Within the scope of this analysis, the Compliance area will assess whether this Policy is appropriate and sufficient for the offer of the new product or service and/or use of the new technology intended.</t>
+  </si>
+  <si>
+    <t>vixiCsPld10</t>
+  </si>
+  <si>
+    <t>10. PROCEDIMENTOS PARA CONHECER CLIENTES (KYC) E PARCEIROS DE NEGÓCIOS (KYP)</t>
+  </si>
+  <si>
+    <t>10. PROCEDURES FOR MEETING CUSTOMERS (KYC) AND BUSINESS PARTNERS (KYP)</t>
+  </si>
+  <si>
+    <t>vixiCsPld101</t>
+  </si>
+  <si>
+    <t>10.1. A Vixi Exchange estabelece como seus principais procedimentos de PLD/CFT o Procedimento de Know Your Customer – KYC (conheça seu cliente) e o Know Your Partner – KYP (conheça seu parceiro de negócios).</t>
+  </si>
+  <si>
+    <t>10.1 Vixi Exchange establishes the Know Your Customer (KYC) and Know Your Partner (KYP) procedures as its main PLD/CFT procedures.</t>
+  </si>
+  <si>
+    <t>vixiCsPld102</t>
+  </si>
+  <si>
+    <t>10.2. Por meio dos procedimentos específicos, a Vixi Exchange busca não só conhecer a verdadeira identidade de seus clientes e prospects, mas também traçar o perfil de risco de cada um, estabelecendo relacionamento mais próximo, de forma a entender as suas reais expectativas e necessidades para atendimento de demandas.</t>
+  </si>
+  <si>
+    <t>10.2 By means of the specific procedures, Vixi Exchange seeks not only to know the true identity of its clients and prospects, but also to trace the risk profile of each one, establishing a closer relationship, in order to understand their real expectations and needs for meeting demands.</t>
+  </si>
+  <si>
+    <t>vixiCsPld103</t>
+  </si>
+  <si>
+    <t>10.3. Este conceito de relacionamento permite identificar os reais propósitos dos clientes/parceiros para prevenir a atuação daqueles que procuram a empresa com objetivos inidôneos.</t>
+  </si>
+  <si>
+    <t>10.3 This relationship concept allows us to identify the real purposes of the clients/partners in order to prevent the actions of those who seek the company with unreliable objectives.</t>
+  </si>
+  <si>
+    <t>vixiCsPld104</t>
+  </si>
+  <si>
+    <t>10.4. Todos os Colaboradores devem conhecer os principais conceitos do mercado e indicações dos organismos reguladores e autorreguladores relacionados à identificação, prevenção e combate à lavagem de dinheiro e ao financiamento do terrorismo. Abaixo recomendações de extrema relevância:</t>
+  </si>
+  <si>
+    <t>10.4 All Collaborators must know the main market concepts and indications of the regulatory and self-regulatory bodies related to the identification, prevention, and fight against money laundering and financing of terrorism. Below are recommendations of extreme relevance:</t>
+  </si>
+  <si>
+    <t>vixiCsPld104Li1</t>
+  </si>
+  <si>
+    <t>Identificar o cliente/parceiro via documentos, dados e informações de origem fidedigna e independente;</t>
+  </si>
+  <si>
+    <t>Identify the customer/partner via documents, data, and information of reliable and independent origin;</t>
+  </si>
+  <si>
+    <t>vixiCsPld104Li2</t>
+  </si>
+  <si>
+    <t>Identificar o beneficiário efetivo e tomar medidas para verificar a sua real identidade;</t>
+  </si>
+  <si>
+    <t>Identify the beneficial owner and take steps to verify his or her real identity;</t>
+  </si>
+  <si>
+    <t>vixiCsPld104Li3</t>
+  </si>
+  <si>
+    <t>Manter vigilância contínua sobre a relação de negócios e examinar atentamente as operações realizadas no decurso dessa relação, verificando se são condizentes com o conhecimento que a instituição possui do cliente/parceiro, seus negócios, perfil de risco e origem de fundos, caso aplicável;</t>
+  </si>
+  <si>
+    <t>Maintain continuous vigilance over the business relationship and carefully examine the transactions performed in the course of that relationship, verifying that they are consistent with the institution's knowledge of the customer/partner, its business, risk profile, and source of funds, if applicable;</t>
+  </si>
+  <si>
+    <t>vixiCsPld104Li4</t>
+  </si>
+  <si>
+    <t>Examinar com particular atenção todas as operações complexas, com montantes significativos e todos os tipos não habituais de operações sem causa econômica ou lícita aparente; e</t>
+  </si>
+  <si>
+    <t>Examine with particular attention all complex transactions with significant amounts and all unusual types of transactions without apparent economic or lawful cause; and</t>
+  </si>
+  <si>
+    <t>vixiCsPld104Li5</t>
+  </si>
+  <si>
+    <t>Comunicar à área de Compliance todo e qualquer indício de informações falsas, operações divergentes à situação financeira, operações divergentes do perfil ou qualquer situação atípica que gere suspeita de irregularidade.</t>
+  </si>
+  <si>
+    <t>Communicate to the Compliance area any and all signs of false information, operations diverging from the financial situation, operations diverging from the profile, or any atypical situation that generates suspicion of irregularity.</t>
+  </si>
+  <si>
+    <t>vixiCsPld11</t>
+  </si>
+  <si>
+    <t>11. PESSOAS EXPOSTAS POLITICAMENTE – PEP</t>
+  </si>
+  <si>
+    <t>11. POLITICALLY EXPOSED PERSONS - PEP</t>
+  </si>
+  <si>
+    <t>vixiCsPld111</t>
+  </si>
+  <si>
+    <t>11.1. Consideram-se PEPs, no Brasil:</t>
+  </si>
+  <si>
+    <t>11.1 The following are considered PEPs in Brazil</t>
+  </si>
+  <si>
+    <t>vixiCsPld111Li1</t>
+  </si>
+  <si>
+    <t>Detentores de mandatos eletivos dos Poderes Executivo e Legislativo da União;</t>
+  </si>
+  <si>
+    <t>Holders of elective mandates from the Executive and Legislative branches of government;</t>
+  </si>
+  <si>
+    <t>vixiCsPld111Li2</t>
+  </si>
+  <si>
+    <t>Ocupantes de cargo, no Poder Executivo da União, de: (a) Ministro de Estado ou equiparado; (b) Natureza Especial ou equivalente; (c) presidente, vice-presidente e diretor, ou equivalentes, de entidades da administração pública indireta; e (d) Grupo Direção e Assessoramento Superiores (DAS), nível 6, ou equivalente;</t>
+  </si>
+  <si>
+    <t>Occupants of positions, in the Executive Branch of the Union, of: (a) Minister of State or equivalent; (b) Special Nature or equivalent; (c) president, vice-president and director, or equivalent, of entities of the indirect public administration; and (d) Senior Management and Advisory Group (DAS), level 6, or equivalent;</t>
+  </si>
+  <si>
+    <t>vixiCsPld111Li3</t>
+  </si>
+  <si>
+    <t>Membros do Conselho Nacional de Justiça, do Supremo Tribunal Federal, dos Tribunais Superiores, dos Tribunais Regionais Federais, dos Tribunais Regionais do Trabalho, dos Tribunais Regionais Eleitorais, do Conselho Superior da Justiça do Trabalho e do Conselho da Justiça Federal;</t>
+  </si>
+  <si>
+    <t>Members of the National Council of Justice, the Federal Supreme Court, the Superior Courts, the Federal Regional Courts, the Regional Labor Courts, the Regional Electoral Courts, the Superior Council of Labor Justice and the Council of Federal Justice;</t>
+  </si>
+  <si>
+    <t>vixiCsPld111Li4</t>
+  </si>
+  <si>
+    <t>Membros do Conselho Nacional do Ministério Público, o Procurador-Geral da República, o Vice-Procurador-Geral da República, o Procurador-Geral do Trabalho, o Procurador-Geral da Justiça Militar, os Subprocuradores-Gerais da República e os Procuradores-Gerais de Justiça dos Estados e do Distrito Federal;</t>
+  </si>
+  <si>
+    <t>Members of the National Council of the Public Prosecutor's Office, the Attorney-General of the Republic, the Deputy Attorney-General of the Republic, the Attorney-General of Labor, the Attorney-General of Military Justice, the Deputy Attorneys-General of the Republic, and the Attorneys-General of the States and the Federal District;</t>
+  </si>
+  <si>
+    <t>vixiCsPld111Li5</t>
+  </si>
+  <si>
+    <t>Membros do Tribunal de Contas da União, o Procurador-Geral e os Subprocuradores-Gerais do Ministério Público junto ao Tribunal de Contas da União;</t>
+  </si>
+  <si>
+    <t>Members of the Federal Audit Court, the Attorney General and the Deputy Attorneys General of the Public Prosecution Service before the Federal Audit Court;</t>
+  </si>
+  <si>
+    <t>vixiCsPld111Li6</t>
+  </si>
+  <si>
+    <t>Presidentes e os tesoureiros nacionais, ou equivalentes, de partidos políticos;</t>
+  </si>
+  <si>
+    <t>Presidents and national treasurers, or equivalent, of political parties;</t>
+  </si>
+  <si>
+    <t>vixiCsPld111Li7</t>
+  </si>
+  <si>
+    <t>Governadores e Secretários de Estado e do Distrito Federal, os Deputados Estaduais e Distritais, os presidentes, ou equivalentes, de entidades da administração pública indireta estadual e distrital e os presidentes de Tribunais de Justiça, Tribunais Militares, Tribunais de Contas ou equivalentes dos Estados e do Distrito Federal; e</t>
+  </si>
+  <si>
+    <t>State and Federal District Governors and Secretaries, State and District Deputies, presidents, or equivalents, of state and district indirect public administration entities and presidents of Courts of Justice, Military Courts, Audit Courts or equivalents of the States and the Federal District; and</t>
+  </si>
+  <si>
+    <t>vixiCsPld111Li8</t>
+  </si>
+  <si>
+    <t>Prefeitos, os Vereadores, os Secretários Municipais, os presidentes, ou equivalentes, de entidades da administração pública indireta municipal e os Presidentes de Tribunais de Contas ou equivalentes dos Municípios.</t>
+  </si>
+  <si>
+    <t>Mayors, Councilmen, Municipal Secretaries, presidents, or equivalents, of municipal indirect public administration entities and the Presidents of Audit Courts, or equivalents, of the Municipalities.</t>
+  </si>
+  <si>
+    <t>vixiCsPld112</t>
+  </si>
+  <si>
+    <t>11.2. Consideram-se também PEPs, no exterior:</t>
+  </si>
+  <si>
+    <t>11.2 PEPs abroad are also considered:</t>
+  </si>
+  <si>
+    <t>vixiCsPld112Li1</t>
+  </si>
+  <si>
+    <t>Chefes de estado ou de governo;</t>
+  </si>
+  <si>
+    <t>Heads of state or government;</t>
+  </si>
+  <si>
+    <t>vixiCsPld112Li2</t>
+  </si>
+  <si>
+    <t>Políticos de escalões superiores;</t>
+  </si>
+  <si>
+    <t>Politicians of higher echelons;</t>
+  </si>
+  <si>
+    <t>vixiCsPld112Li3</t>
+  </si>
+  <si>
+    <t>Ocupantes de cargos governamentais de escalões superiores;</t>
+  </si>
+  <si>
+    <t>Occupants of upper echelon government positions;</t>
+  </si>
+  <si>
+    <t>vixiCsPld112Li4</t>
+  </si>
+  <si>
+    <t>Oficiais-generais e membros de escalões superiores do Poder Judiciário;</t>
+  </si>
+  <si>
+    <t>General officers and high-ranking members of the judiciary;</t>
+  </si>
+  <si>
+    <t>vixiCsPld112Li5</t>
+  </si>
+  <si>
+    <t>Executivos de escalões superiores de empresas públicas; e</t>
+  </si>
+  <si>
+    <t>Senior executives of public companies; and</t>
+  </si>
+  <si>
+    <t>vixiCsPld112Li6</t>
+  </si>
+  <si>
+    <t>Dirigentes de partidos políticos.</t>
+  </si>
+  <si>
+    <t>Political party leaders.</t>
+  </si>
+  <si>
+    <t>vixiCsPld113</t>
+  </si>
+  <si>
+    <t>11.3. São também consideradas PEPs os dirigentes de escalões superiores de entidades de direito internacional público ou privado.</t>
+  </si>
+  <si>
+    <t>11.3 Senior managers of public or private international law entities are also considered PEPs.</t>
+  </si>
+  <si>
+    <t>vixiCsPld114</t>
+  </si>
+  <si>
+    <t>11.4. A condição de PEP deve ser aplicada pelos 5 (cinco) anos seguintes à data em que a pessoa deixou de se enquadrar nos cargos supracitados.</t>
+  </si>
+  <si>
+    <t>11.4 The PEP condition must be applied for the five (5) years following the date on which the person ceased to fit into the aforementioned positions.</t>
+  </si>
+  <si>
+    <t>vixiCsPld115</t>
+  </si>
+  <si>
+    <t>11.5. Considera-se familiar de PEP: os parentes, na linha reta ou colateral, até o segundo grau, o cônjuge, o companheiro, a companheira, o enteado e a enteada.</t>
+  </si>
+  <si>
+    <t>11.5 The following are considered family members of PEP: relatives, in a direct or collateral line, up to the second degree, spouse, partner, stepchildren and step-daughters-in-law.</t>
+  </si>
+  <si>
+    <t>vixiCsPld116</t>
+  </si>
+  <si>
+    <t>11.6. Considera-se estreito colaborador de PEP: (a) a pessoa natural conhecida por ter qualquer tipo de estreita relação com PEP, inclusive por (i) ter participação conjunta em pessoa jurídica de direito privado; (ii) figurar como mandatária, ainda que por instrumento particular da pessoa mencionada no item (i); (iii) ter participação conjunta em arranjos sem personalidade jurídica; e (b) pessoa natural que tem o controle de pessoas jurídicas ou de arranjos sem personalidade jurídica, conhecidos por terem sido criados para o benefício de PEP.</t>
+  </si>
+  <si>
+    <t>11.6 The following are considered close associates of PEP: (a) natural persons known to have any kind of close relationship with PEP, including by (i) having a joint interest in a legal entity under private law; (ii) acting as trustee, even if by private instrument of the person mentioned in item (i); (iii) having a joint interest in unincorporated arrangements; and (b) natural persons who have control of legal entities or unincorporated arrangements known to have been created for the benefit of PEP.</t>
+  </si>
+  <si>
+    <t>vixiCsPld117</t>
+  </si>
+  <si>
+    <t>11.7. As operações ou propostas de operações que possuam PEP, seu representante, familiar ou estreito colaborador como parte envolvida serão sempre consideradas como merecedoras de especial atenção, nos termos da presente Política.</t>
+  </si>
+  <si>
+    <t>11.7 The transactions or proposed transactions that have PEP, its representative, family member or close associate as a party involved will always be considered as worthy of special attention under this Policy.</t>
+  </si>
+  <si>
+    <t>vixiCsPld118</t>
+  </si>
+  <si>
+    <t>11.8. Toda documentação cadastral de clientes enquadrados como PEP, familiar ou estreito colaborador de PEP deve ser encaminhada à área de Compliance, sendo que, nesses casos, a realização do Third-Party Due Diligence (TDD), detalhada no item 13 desta Política, é obrigatória.</t>
+  </si>
+  <si>
+    <t>11.8 All registration documentation of clients classified as PEP, family member or close associate of PEP must be forwarded to the Compliance area, and in these cases, the performance of Third-Party Due Diligence (TDD), detailed in item 13 of this Policy, is mandatory.</t>
+  </si>
+  <si>
+    <t>vixiCsPld119</t>
+  </si>
+  <si>
+    <t>11.9. Ao efetuar operações para PEPs, familiares ou estreitos colaboradores de PEPs, ou em seus nomes, os Colaboradores deverão estar atentos a qualquer indício, mesmo que potencial, de lavagem de dinheiro ou de financiamento de atividades terroristas, conforme exemplos abaixo:</t>
+  </si>
+  <si>
+    <t>11.9 When performing transactions for PEPs, relatives or close collaborators of PEPs, or in their names, Collaborators must be alert to any indication, even potential, of money laundering or financing terrorist activities, as per examples below:</t>
+  </si>
+  <si>
+    <t>vixiCsPld119Li1</t>
+  </si>
+  <si>
+    <t>Solicitação de associar alguma forma de sigilo com uma transação, como, por exemplo, registrar a transação em nome de outra pessoa ou de uma empresa cujo favorecido não tenha sua identidade revelada;</t>
+  </si>
+  <si>
+    <t>Request to associate some form of secrecy with a transaction, such as registering the transaction in the name of another person or a company whose beneficiary does not have its identity revealed;</t>
+  </si>
+  <si>
+    <t>vixiCsPld119Li2</t>
+  </si>
+  <si>
+    <t>Direcionamento de transações por meio de várias jurisdições e/ou instituições financeiras, sem propósito evidente, exceto o de ocultar a natureza, fonte, detenção ou controle dos fundos;</t>
+  </si>
+  <si>
+    <t>Directing transactions through multiple jurisdictions and/or financial institutions, with no obvious purpose except to conceal the nature, source, ownership, or control of the funds;</t>
+  </si>
+  <si>
+    <t>vixiCsPld119Li3</t>
+  </si>
+  <si>
+    <t>Rápido aumento ou redução dos recursos ou valor dos ativos na conta de uma PEP, familiar ou estreito colaborador de PEP, que não seja atribuível a flutuações no valor de mercado dos instrumentos de investimento detidos na conta;</t>
+  </si>
+  <si>
+    <t>Rapid increase or decrease in the funds or value of assets in the account of a PEP, family member or close associate of PEP, that is not attributable to fluctuations in the market value of the investment instruments held in the account;</t>
+  </si>
+  <si>
+    <t>vixiCsPld119Li4</t>
+  </si>
+  <si>
+    <t>Uso frequente ou excessivo de transferências de fundos ou transferências eletrônicas para a conta de uma PEP, familiar ou estreito colaborador de PEP ou originando-se dela;</t>
+  </si>
+  <si>
+    <t>Frequent or excessive use of fund transfers or wire transfers to or originating from the account of a PEP, family member or close associate of PEP;</t>
+  </si>
+  <si>
+    <t>vixiCsPld119Li5</t>
+  </si>
+  <si>
+    <t>Depósitos ou retiradas de alto valor que não sejam condizentes e proporcionais ao tipo de conta e patrimônio legítimo ou atividades do cliente;</t>
+  </si>
+  <si>
+    <t>High value deposits or withdrawals that are not consistent and proportionate to the account type and legitimate assets or activities of the customer;</t>
+  </si>
+  <si>
+    <t>vixiCsPld119Li6</t>
+  </si>
+  <si>
+    <t>Existência de um modelo segundo o qual, depois que um depósito ou transferência eletrônica é recebido pela conta, os fundos são rapidamente transferidos no mesmo valor para outra instituição financeira, especialmente se a transferência for efetuada para uma conta em instituição financeira offshore ou em "jurisdição sigilosa"; e</t>
+  </si>
+  <si>
+    <t>Existence of a pattern whereby, after a deposit or wire transfer is received by the account, funds are quickly transferred in the same amount to another financial institution, especially if the transfer is made to an account at an offshore financial institution or in a "secrecy jurisdiction"; and</t>
+  </si>
+  <si>
+    <t>vixiCsPld119Li7</t>
+  </si>
+  <si>
+    <t>Consulta pela PEP a respeito de exceções aos requisitos de manutenção de registros ou apresentação de relatório ou outras normas que exigem a comunicação de transações suspeitas.</t>
+  </si>
+  <si>
+    <t>Consultation by PEP regarding exceptions to recordkeeping or reporting requirements or other regulations requiring the reporting of suspicious transactions.</t>
+  </si>
+  <si>
+    <t>vixiCsPld12</t>
+  </si>
+  <si>
+    <t>12. PESSOAS DE MÍDIA</t>
+  </si>
+  <si>
+    <t>12. MEDIA PEOPLE</t>
+  </si>
+  <si>
+    <t>vixiCsPld121</t>
+  </si>
+  <si>
+    <t>12.1. São consideradas “Pessoas de Mídia” aquelas que estejam em voga na mídia, como artistas, esportistas, jornalistas, incluindo membros de suas ‘’famílias imediatas’’ (pais, irmãos, cônjuge, filhos e parentes por afinidade) e ‘’associados próximos’’ (pessoa ampla e publicamente conhecida por manter relacionamento extraordinariamente próximo com a Pessoa de Mídia, incluindo uma pessoa que está em condições de realizar transações financeiras, em âmbito nacional e internacional, em nome desta última) e sociedades, empresas, ou outras pessoas jurídicas que tenham sido formadas por uma Pessoa de Mídia ou em seu benefício.</t>
+  </si>
+  <si>
+    <t>12.1. Media Persons" are those persons who are in the media spotlight such as entertainers, athletes, journalists, including members of their "immediate families" (parents, siblings, spouse, children and in-laws) and "close associates" (a person widely and publicly known to have an unusually close relationship with the Media Person, including a person who is in a position to transact financial transactions, nationally and internationally, on behalf of the Media Person) and partnerships, corporations, or other legal entities that have been formed by or for the benefit of a Media Person.</t>
+  </si>
+  <si>
+    <t>vixiCsPld122</t>
+  </si>
+  <si>
+    <t>12.2. Quando um Colaborador identificar a existência real ou potencial de negócios com Pessoa de Mídia, deve comunicar o fato imediatamente à área de Compliance para análise. No caso de comprovação, devem ser adotados os mesmos procedimentos para PEPs, conforme disposto acima, com exceção da autodeclaração.</t>
+  </si>
+  <si>
+    <t>12.2 When a Collaborator identifies the actual or potential existence of business with a Media Person, he/she should immediately communicate the fact to the Compliance area for analysis. In case of proof, the same procedures shall be adopted for PEPs, as set forth above, except for self-declaration.</t>
+  </si>
+  <si>
+    <t>vixiCsPld13</t>
+  </si>
+  <si>
+    <t>13. THIRD-PARTY DUE DILIGENCE</t>
+  </si>
+  <si>
+    <t>vixiCsPld131</t>
+  </si>
+  <si>
+    <t>13.1. O Third-Party Due Diligence é uma pesquisa mais detalhada de diversas informações relacionadas aos clientes e parceiros que demandem atenção diferenciada por nível de risco, volumes de operações, segmento de atuação, endereço residencial ou comercial, rede de relacionamentos, características de operações, comunicação por Colaboradores, órgãos reguladores ou pessoal externo, suspeitas de transações irregulares, informações na mídia ou qualquer outro motivo que justifique tal pesquisa.</t>
+  </si>
+  <si>
+    <t>13.1 The Third-Party Due Diligence is a more detailed research of several information related to clients and partners that require differentiated attention by risk level, operation volumes, operation segment, residential or commercial address, relationship network, operation characteristics, communication by Employees, regulatory agencies or external personnel, suspicions of irregular transactions, information in the media or any other reason that justifies such research.</t>
+  </si>
+  <si>
+    <t>vixiCsPld132</t>
+  </si>
+  <si>
+    <t>13.2. Trata-se de um procedimento específico, com pesquisas criteriosas, checagem “in-loco” de endereços, inclusive sobre o país de origem e se consta em alguma lista específica de entidades na prevenção e combate à lavagem de dinheiro e ao financiamento de terrorismo (ex.: COAF, GAFI, ONU, Transparência Internacional, FBI, INTERPOL e órgãos policiais nacionais).</t>
+  </si>
+  <si>
+    <t>13.2 This is a specific procedure, with careful research, "in-loco" checking of addresses, including the country of origin and whether it appears on any specific list of entities in the prevention and fight against money laundering and terrorist financing (e.g.: COAF, FATF, UN, Transparency International, FBI, INTERPOL, and national police agencies).</t>
+  </si>
+  <si>
+    <t>vixiCsPld133</t>
+  </si>
+  <si>
+    <t>13.3. Toda e qualquer comunicação aos órgãos reguladores competentes deve ser efetuada exclusivamente pela área de Compliance e precedida do Third-Party Due Diligence do envolvido.</t>
+  </si>
+  <si>
+    <t>13.3 All and any communication to the competent regulatory agencies shall be made exclusively by the Compliance area and preceded by the Third-Party Due Diligence of the involved party.</t>
+  </si>
+  <si>
+    <t>vixiCsPld14</t>
+  </si>
+  <si>
+    <t>14. TRATAMENTO DE INDÍCIOS DE LD E FT</t>
+  </si>
+  <si>
+    <t>14. TREATMENT OF EVIDENCE OF LD AND FT</t>
+  </si>
+  <si>
+    <t>vixiCsPld141</t>
+  </si>
+  <si>
+    <t>14.1. A área de Compliance é responsável pelas rotinas de monitoramento para identificação de indícios de lavagem de dinheiro e financiamento ao terrorismo. As rotinas visam identificar operações com reincidência de contrapartes, transferências injustificadas, operações com incompatibilidade patrimonial, entre outras.</t>
+  </si>
+  <si>
+    <t>14.1 The Compliance area is responsible for monitoring routines to identify indications of money laundering and financing of terrorism. The routines aim to identify operations with recurrent counterparties, unjustified transfers, operations with asset incompatibility, among others.</t>
+  </si>
+  <si>
+    <t>vixiCsPld142</t>
+  </si>
+  <si>
+    <t>14.2. Para o gerenciamento das ocorrências e tratamento dos indícios de lavagem de dinheiro e controle de operações com vistas a coibir práticas abusivas, a Vixi Exchange utiliza serviços de pesquisas e cruzamento de dados manuais/informatizados, em linha com boas práticas e junto a fornecedores reconhecidos no mercado. Como parte da análise, também são realizadas buscas em ferramentas que verificam o envolvimento do cliente com notícias negativas, comportamento em mídias sociais ou listas de sanções públicas.</t>
+  </si>
+  <si>
+    <t>14.2 For the management of occurrences and treatment of money laundering indications and control of transactions in order to curb abusive practices, Vixi Exchange uses research services and manual/computerized data crossing, in line with good practices and with recognized suppliers in the market. As part of the analysis, searches are also performed in tools that verify the client's involvement with negative news, behavior in social media or public sanction lists.</t>
+  </si>
+  <si>
+    <t>vixiCsPld143</t>
+  </si>
+  <si>
+    <t>14.3. O sistema de prevenção à lavagem de dinheiro coleta diariamente informações cadastrais, operacionais e de movimentação financeira. Casos de incompatibilidade com as regras definidas no sistema gerarão alertas, identificando quais filtros foram acionados para análise.</t>
+  </si>
+  <si>
+    <t>14.3 The money laundering prevention system collects daily registration, operational and financial movement information. Cases of incompatibility with the rules defined in the system will generate alerts, identifying which filters were activated for analysis.</t>
+  </si>
+  <si>
+    <t>vixiCsPld144</t>
+  </si>
+  <si>
+    <t>14.4. Uma vez gerada a ocorrência, cabe à área de Compliance analisar o cliente/parceiro e suas operações para confirmar ou não os indícios de lavagem de dinheiro e financiamento ao terrorismo.</t>
+  </si>
+  <si>
+    <t>14.4 Once the occurrence is generated, it is up to the Compliance area to analyze the client/partner and its operations to confirm or not the indications of money laundering and financing to terrorism.</t>
+  </si>
+  <si>
+    <t>vixiCsPld145</t>
+  </si>
+  <si>
+    <t>14.5. As análises consistem em verificação da documentação cadastral, evolução da situação financeira/patrimonial, resultado das operações (principalmente transações repetitivas), alto índice de operações entre as mesmas partes, incluindo aquelas com mesmo comitente, compatibilidade entre as operações, situação financeira, ocupação profissional e idade.</t>
+  </si>
+  <si>
+    <t>14.5 The analyses consist in verifying the cadastral documentation, evolution of the financial/wealth situation, result of the operations (mainly repetitive transactions), high index of operations between the same parties, including those with the same client, compatibility between the operations, financial situation, professional occupation and age.</t>
+  </si>
+  <si>
+    <t>vixiCsPld146</t>
+  </si>
+  <si>
+    <t>14.6. São providências que podem ser tomadas: exigência de atualização cadastral, pedido de esclarecimentos, arquivamento da ocorrência ou comunicado imediato aos órgãos competentes sobre a atipicidade identificada.</t>
+  </si>
+  <si>
+    <t>14.6 The following are measures that can be taken: demand for updating of the registry, request for clarifications, filing of the occurrence, or immediate communication to the competent bodies about the atypicality identified.</t>
+  </si>
+  <si>
+    <t>vixiCsPld147</t>
+  </si>
+  <si>
+    <t>14.7. Nenhum parceiro ou cliente da Vixi Exchange deve manter negócio com qualquer pessoa, entidade, governo ou região apontados nas listas restritivas da OFAC, Conselho de Segurança da ONU ou Interpol, dentre outras.</t>
+  </si>
+  <si>
+    <t>14.7 No partner or customer of Vixi Exchange shall do business with any person, entity, government, or region that is on the OFAC, UN Security Council, or Interpol restrictive lists, among others.</t>
+  </si>
+  <si>
+    <t>vixiCsPld148</t>
+  </si>
+  <si>
+    <t>14.8. Os Colaboradores da Vixi Exchange poderão, a qualquer tempo, entrar em contato através do canal compliance@vixiexchange.com.br para obter esclarecimentos relativos aos procedimentos e controles de PLD/CFT aplicáveis.</t>
+  </si>
+  <si>
+    <t>14.8 Vixi Exchange Employees may, at any time, contact compliance@vixiexchange.com.br to obtain clarification regarding the applicable PLD/CFT procedures and controls.</t>
+  </si>
+  <si>
+    <t>vixiCsPld149</t>
+  </si>
+  <si>
+    <t>14.9. Todos os dados e informações coletados nos termos da presente Política serão mantidos pela Vixi Exchange pelo prazo de 5 (cinco) anos.</t>
+  </si>
+  <si>
+    <t>14.9 All data and information collected under the terms of this Policy will be kept by Vixi Exchange for a period of 5 (five) years.</t>
+  </si>
+  <si>
+    <t>vixiCsPld15</t>
+  </si>
+  <si>
+    <t>15. ANÁLISE E COMUNICAÇÃO DE OPERAÇÕES AUTOMÁTICAS E SUSPEITAS</t>
+  </si>
+  <si>
+    <t>15. ANALYSIS AND REPORTING OF AUTOMATIC AND SUSPICIOUS OPERATIONS</t>
+  </si>
+  <si>
+    <t>vixiCsPld151</t>
+  </si>
+  <si>
+    <t>15.1. As comunicações automáticas são aquelas que não passam por análise de juízo de valor pela Vixi Exchange e são comunicadas diretamente ao COAF. São elas:</t>
+  </si>
+  <si>
+    <t>15.1 The automatic communications are those that do not undergo value judgment analysis by Vixi Exchange and are communicated directly to COAF. They are the following:</t>
+  </si>
+  <si>
+    <t>vixiCsPld151Li1</t>
+  </si>
+  <si>
+    <t>Operações de depósito ou aporte em espécie ou saque em espécie de valor igual ou superior a R$50.000,00 (cinquenta mil reais);</t>
+  </si>
+  <si>
+    <t>Operations of deposit or contribution in kind or withdrawal in cash of an amount equal to or greater than R$50,000.00 (fifty thousand reais);</t>
+  </si>
+  <si>
+    <t>vixiCsPld151Li2</t>
+  </si>
+  <si>
+    <t>Operações relativas a pagamentos, recebimentos e transferências de recursos, por meio de qualquer instrumento, contra pagamento em espécie, de valor igual ou superior a R$50.000,00 (cinquenta mil reais); e</t>
+  </si>
+  <si>
+    <t>Operations concerning payments, receipts and transfers of resources, by means of any instrument, against payment in kind, in an amount equal to or greater than R$50,000.00 (fifty thousand reais); and</t>
+  </si>
+  <si>
+    <t>vixiCsPld151Li3</t>
+  </si>
+  <si>
+    <t>Solicitação de provisionamento de saques em espécie de valor igual ou superior a R$50.000,00 (cinquenta mil reais).</t>
+  </si>
+  <si>
+    <t>Request for provisioning cash withdrawals of R$50,000.00 (fifty thousand reais) or more.</t>
+  </si>
+  <si>
+    <t>vixiCsPld152</t>
+  </si>
+  <si>
+    <t>15.2. Operações e situações suspeitas referem-se a qualquer operação ou situação que apresente indícios de utilização da instituição para a prática dos crimes de lavagem de dinheiro e de financiamento do terrorismo. Consideram-se operações suspeitas:</t>
+  </si>
+  <si>
+    <t>15.2. Suspicious operations and situations refer to any operation or situation that presents indications of use of the institution for the practice of the crimes of money laundering and financing of terrorism. The following are considered suspicious operations:</t>
+  </si>
+  <si>
+    <t>vixiCsPld152Li1</t>
+  </si>
+  <si>
+    <t>As operações realizadas e os produtos e serviços contratados que, considerando as partes envolvidas, os valores, as formas de realização, os instrumentos utilizados ou a falta de fundamento econômico ou legal, possam configurar a existência de indícios de lavagem de dinheiro ou de financiamento do terrorismo, inclusive:</t>
+  </si>
+  <si>
+    <t>The operations carried out and the products and services contracted that, considering the parties involved, the amounts, the ways of accomplishment, the instruments used or the lack of economic or legal grounds, may configure the existence of signs of money laundering or terrorism financing, including:</t>
+  </si>
+  <si>
+    <t>vixiCsPld152Li2</t>
+  </si>
+  <si>
+    <t>As operações realizadas ou os serviços prestados que, por sua habitualidade, valor ou forma, configurem artifício que objetive burlar os procedimentos de identificação, qualificação, registro, monitoramento e seleção;</t>
+  </si>
+  <si>
+    <t>The operations performed or services provided that, due to their regularity, value or form, represent an artifice that aims to circumvent the identification, qualification, registration, monitoring and selection procedures;</t>
+  </si>
+  <si>
+    <t>vixiCsPld152Li3</t>
+  </si>
+  <si>
+    <t>As operações de depósito ou aporte em espécie, saque em espécie, ou pedido de provisionamento para saque que apresentem indícios de ocultação ou dissimulação da natureza, da origem, da localização, da disposição, da movimentação ou da propriedade de bens, direitos e valores;</t>
+  </si>
+  <si>
+    <t>The operations of deposit or contribution in kind, withdrawal in kind, or request for provisioning for withdrawal that present evidence of concealment or dissimulation of the nature, origin, location, disposition, movement or ownership of assets, rights and values;</t>
+  </si>
+  <si>
+    <t>vixiCsPld152Li4</t>
+  </si>
+  <si>
+    <t>As operações realizadas e os produtos e serviços contratados que, considerando as partes e os valores envolvidos, apresentem incompatibilidade com a capacidade financeira do cliente, incluindo a renda, no caso de pessoa natural, ou o faturamento, no caso de pessoa jurídica, e o patrimônio;</t>
+  </si>
+  <si>
+    <t>The operations carried out and the products and services contracted that, considering the parties and the amounts involved, present incompatibility with the client's financial capacity, including income, in the case of a natural person, or billing, in the case of a legal entity, and assets;</t>
+  </si>
+  <si>
+    <t>vixiCsPld152Li5</t>
+  </si>
+  <si>
+    <t>As operações com PEPs de nacionalidade brasileira e com representantes, familiares ou estreitos colaboradores de PEPs;</t>
+  </si>
+  <si>
+    <t>Operations with PEPs of Brazilian nationality and with representatives, relatives or close associates of PEPs;</t>
+  </si>
+  <si>
+    <t>vixiCsPld152Li6</t>
+  </si>
+  <si>
+    <t>As operações com PEPs estrangeiras;</t>
+  </si>
+  <si>
+    <t>Transactions with foreign PEPs;</t>
+  </si>
+  <si>
+    <t>vixiCsPld152Li7</t>
+  </si>
+  <si>
+    <t>Os clientes e as operações em relação aos quais não seja possível identificar o beneficiário final;</t>
+  </si>
+  <si>
+    <t>Customers and transactions for which it is not possible to identify the final beneficiary;</t>
+  </si>
+  <si>
+    <t>vixiCsPld152Li8</t>
+  </si>
+  <si>
+    <t>As operações oriundas ou destinadas a países ou territórios com deficiências estratégicas na implantação das recomendações do Grupo de Ação Financeira (Gafi);</t>
+  </si>
+  <si>
+    <t>Operations originating from or destined for countries or territories with strategic deficiencies in implementing the recommendations of the Financial Action Task Force (FATF);</t>
+  </si>
+  <si>
+    <t>vixiCsPld152Li9</t>
+  </si>
+  <si>
+    <t>As situações em que não seja possível manter atualizadas as informações cadastrais de seus clientes; e</t>
+  </si>
+  <si>
+    <t>The situations in which it is not possible to keep the client's registration information updated; and</t>
+  </si>
+  <si>
+    <t>vixiCsPld152Li10</t>
+  </si>
+  <si>
+    <t>As operações e situações que possam indicar suspeitas de financiamento do terrorismo.</t>
+  </si>
+  <si>
+    <t>Operations and situations that may indicate suspicion of terrorist financing.</t>
+  </si>
+  <si>
+    <t>vixiCsPld153</t>
+  </si>
+  <si>
+    <t>15.3 Todas as operações que passam pela plataforma da Vixi Exchange são monitoradas. As operações suspeitas, definidas em procedimento próprio, geram análise especial. As operações suspeitas são analisadas e reportadas num dossiê que concluirá sobre a necessidade da comunicação de referida operação suspeita ao COAF.</t>
+  </si>
+  <si>
+    <t>15.3 All transactions that pass through the Vixi Exchange platform are monitored. Suspicious transactions, defined in a specific procedure, generate special analysis. Suspicious transactions are analyzed and reported in a dossier that will conclude on the need to communicate said suspicious transaction to COAF.</t>
+  </si>
+  <si>
+    <t>vixiCsPld154</t>
+  </si>
+  <si>
+    <t>15.4. O período para execução dos procedimentos de análise de operações suspeitas não excederá o prazo de 45 (quarenta e cinco) dias, contados a partir da data da seleção da operação ou situação.</t>
+  </si>
+  <si>
+    <t>15.4 The period for the execution of the analysis procedures of suspect operations will not exceed 45 (forty-five) days, counted from the date of the selection of the operation or situation.</t>
+  </si>
+  <si>
+    <t>vixiCsPld16</t>
+  </si>
+  <si>
+    <t>16. PERFIL DE INVESTIMENTO E GRAU DE SUSCETIBILIDADE</t>
+  </si>
+  <si>
+    <t>vixiCsPld161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1. Com o intuito de conhecer a verdadeira identidade, perfil e aspirações de seus clientes, a Vixi Exchange aplica categorização de risco que contempla informações de: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1. In order to know the true identity, profile and aspirations of its clients, Vixi Exchange applies risk categorization that contemplates information on: </t>
+  </si>
+  <si>
+    <t>vixiCsPld161B1</t>
+  </si>
+  <si>
+    <t>Perfil de Investimento</t>
+  </si>
+  <si>
+    <t>Investment Profile</t>
+  </si>
+  <si>
+    <t>vixiCsPld161Text1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (conservador, moderado ou agressivo) e </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (conservative, moderate or aggressive) and </t>
+  </si>
+  <si>
+    <t>vixiCsPld161B2</t>
+  </si>
+  <si>
+    <t>Suscetibilidade</t>
+  </si>
+  <si>
+    <t>Susceptibility</t>
+  </si>
+  <si>
+    <t>vixiCsPld161Text2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (alta ou baixa).</t>
+  </si>
+  <si>
+    <t>(high or low).</t>
+  </si>
+  <si>
+    <t>vixiCsPld162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2. O </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2. The </t>
+  </si>
+  <si>
+    <t>vixiCsPld162B1</t>
+  </si>
+  <si>
+    <t>vixiCsPld162Text1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> é obtido por meio de um questionário que o cliente responde de acordo com seu entendimento e realidade como investidor. O resultado desse estudo é a definição do Perfil de Investimento, que norteará, dentre outras ações, a oferta de produtos e a categorização de riscos, conforme segue:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is obtained by means of a questionnaire that the customer answers according to his or her understanding and reality as an investor. The result of this study is the definition of the Investment Profile, which will guide, among other actions, the offer of products and the categorization of risks, as follows:</t>
+  </si>
+  <si>
+    <t>vixiCsPld162LiTitle1</t>
+  </si>
+  <si>
+    <t>Conservador:</t>
+  </si>
+  <si>
+    <t>Conservative:</t>
+  </si>
+  <si>
+    <t>vixiCsPld162LiText1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Objetivo principal é a segurança, com a preservação do capital e baixa tolerância a riscos. O cliente conservador tem a segurança como ponto decisivo para as suas aplicações, aceitando até uma rentabilidade menor. Destina os seus recursos em títulos de Renda Fixa (Fundos de Investimentos e Tesouro Direto);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The main objective is security, with capital preservation and low risk tolerance. The conservative client has security as the decisive point for his investments, accepting even a lower profitability. He allocates his resources in Fixed Income securities (Investment Funds and Treasury Direct);</t>
+  </si>
+  <si>
+    <t>vixiCsPld162LiTitle2</t>
+  </si>
+  <si>
+    <t>Moderado:</t>
+  </si>
+  <si>
+    <t>Moderate:</t>
+  </si>
+  <si>
+    <t>vixiCsPld162LiText2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Objetivo principal é obter retorno acima dos padrões de renda fixa disponíveis no mercado com exposição minimizada dos riscos de renda variável. É o investidor que possui boa parte do patrimônio em renda fixa, mas também quer participar da rentabilidade da renda variável. A segurança tem papel importante, assim como um retorno acima da média do mercado e, normalmente, mantém posições em médio e longo prazos. Tende a participar de Fundos (Multimercados, de Ações e Imobiliários), Letras de Créditos (LCI e LCA), Clubes de Investimentos, Empréstimos de Ações (BTC) como doador, e mercado à vista de ações, inclusive com operações de day-trades; e</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The main objective is to obtain returns above the fixed income standards available in the market with minimized exposure to variable income risks. This is the investor who has a good part of his assets in fixed income, but also wants to participate in the profitability of variable income. Security plays an important role, as well as a return above the market average, and usually holds positions in the medium and long term. They tend to participate in Funds (Multimarket, Equity, and Real Estate), Letters of Credit (LCI and LCA), Investment Clubs, Stock Loans (BTC) as a donor, and the stock spot market, including day-trades; and</t>
+  </si>
+  <si>
+    <t>vixiCsPld162LiTitle3</t>
+  </si>
+  <si>
+    <t>Agressivo:</t>
+  </si>
+  <si>
+    <t>Aggressive:</t>
+  </si>
+  <si>
+    <t>vixiCsPld162LiText3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tem como objetivo correr maior risco visando máxima rentabilidade para os seus investimentos. Busca a boa rentabilidade ofertada pela renda variável, reservando parcela mínima do seu patrimônio para as aplicações mais seguras. O investidor agressivo procura estar sempre atualizado para aproveitar eventuais oportunidades de investimento e com perspectiva de retorno em curto prazo. Possui como característica operar em todos os mercados administrados por bolsas de valores e aplicar em produtos que apresentam exposição à variação cambial e inflação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Its objective is to run a higher risk aiming at maximum profitability for its investments. He seeks the good profitability offered by variable income, reserving a minimum portion of his assets for safer applications. The aggressive investor seeks to be always up to date to take advantage of eventual investment opportunities and with the prospect of a short-term return. Their characteristic is to operate in all markets managed by stock exchanges and to invest in products that are exposed to exchange rate variations and inflation.</t>
+  </si>
+  <si>
+    <t>vixiCsPld163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3. O </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3 The </t>
+  </si>
+  <si>
+    <t>vixiCsPld163B1</t>
+  </si>
+  <si>
+    <t>Grau de Suscetibilidade</t>
+  </si>
+  <si>
+    <t>degree of susceptibility</t>
+  </si>
+  <si>
+    <t>vixiCsPld163Text1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> de cada cliente é definido com base em suas informações cadastrais, ratificadas conforme análise. Para a categorização da suscetibilidade são verificados três tipos de informações: (i) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> of each client is defined based on its registration information, ratified according to analysis. To categorize susceptibility, three types of information are verified: (i) </t>
+  </si>
+  <si>
+    <t>vixiCsPld163B2</t>
+  </si>
+  <si>
+    <t>Segmento de Atuação</t>
+  </si>
+  <si>
+    <t>Business Segment</t>
+  </si>
+  <si>
+    <t>vixiCsPld163Text2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, (ii) </t>
+  </si>
+  <si>
+    <t>vixiCsPld163B3</t>
+  </si>
+  <si>
+    <t>Origem do Cliente</t>
+  </si>
+  <si>
+    <t>Client's Origin</t>
+  </si>
+  <si>
+    <t>vixiCsPld163Text3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> e (iii) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">, and (iii) </t>
+  </si>
+  <si>
+    <t>vixiCsPld163B4</t>
+  </si>
+  <si>
+    <t>Característica Profissional.</t>
+  </si>
+  <si>
+    <t>Professional Characteristic.</t>
+  </si>
+  <si>
+    <t>vixiCsPld164</t>
+  </si>
+  <si>
+    <t>16.4. Identificado cliente em qualquer condição definida como de maior suscetibilidade, a documentação cadastral deverá ser encaminhada à área de Compliance antes do início de suas operações com a Vixi Exchange. A metodologia definida quanto à suscetibilidade dos clientes estabelece os seguintes critérios:</t>
+  </si>
+  <si>
+    <t>16.4 Once a client is identified in any condition defined as being of higher susceptibility, the registration documentation must be forwarded to the Compliance area prior to the start of its operations with Vixi Exchange. The methodology defined as to customer susceptibility establishes the following criteria:</t>
+  </si>
+  <si>
+    <t>vixiCsPld164LiTitle1</t>
+  </si>
+  <si>
+    <t>Segmento de Atuação:</t>
+  </si>
+  <si>
+    <t>Business Segment:</t>
+  </si>
+  <si>
+    <t>vixiCsPld164LiText1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Instituições financeiras e factorings (inclusive pessoas físicas com cargos de maior relevância), casas de câmbio, corretoras e distribuidoras, empresas de turismo, jogos, igreja, entretenimento, partidos políticos, transporte aéreo e seguros;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Financial institutions and factorings (including individuals with major positions), exchange houses, brokerage and distribution companies, tourism, gaming, church, entertainment, political parties, air transport, and insurance companies;</t>
+  </si>
+  <si>
+    <t>vixiCsPld164LiTitle2</t>
+  </si>
+  <si>
+    <t>Origem do Cliente:</t>
+  </si>
+  <si>
+    <t>Customer Source:</t>
+  </si>
+  <si>
+    <t>vixiCsPld164LiText2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Devem ser considerados o país de origem e o endereço residencial atual. São considerados de alta suscetibilidade: paraísos fiscais, países não cooperantes, países com histórico recente de guerras, guerrilhas ou narcotráfico; e</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The country of origin and current residential address must be considered. The following are considered highly susceptible: tax havens, non-cooperative countries, countries with a recent history of war, guerrilla warfare or drug trafficking; and</t>
+  </si>
+  <si>
+    <t>vixiCsPld164LiTitle3</t>
+  </si>
+  <si>
+    <t>Característica Profissional:</t>
+  </si>
+  <si>
+    <t>Professional Feature:</t>
+  </si>
+  <si>
+    <t>vixiCsPld164LiText3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PEPs, familiares e estreitos colaboradores de PEPs, outras personalidades políticas e personalidades da mídia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PEPs, family members and close associates of PEPs, other political personalities and media personalities.</t>
+  </si>
+  <si>
+    <t>vixiCsPld1641</t>
+  </si>
+  <si>
+    <t>16.4.1. Para os fins da presente cláusula, serão considerados “Paraísos Fiscais” os países com tributação favorecida ou que oponham sigilo relativo à composição societária de pessoas jurídicas (listagem RFB). Por sua vez, são “Países Não-Cooperantes” aqueles países que não atuam ou não cooperam no combate às práticas de lavagem de dinheiro e de financiamento do terrorismo por terem legislação permissiva, ou mesmo pela falta de instrumentos jurídicos para fiscalização e regulamentação dos setores econômicos vulneráveis à lavagem de dinheiro e ao financiamento de atividades terroristas (listagem COAF).</t>
+  </si>
+  <si>
+    <t>16.4.1 For the purposes of this clause, will be considered "Tax Havens" the countries with favored taxation or that oppose secrecy related to the corporate structure of legal entities (RFB listing). In turn, "Non-Cooperative Countries" are those countries that do not act or do not cooperate in the fight against money laundering practices and financing of terrorism due to their permissive legislation, or even due to the lack of legal instruments for inspection and regulation of the economic sectors that are vulnerable to money laundering and financing of terrorist activities (COAF list).</t>
+  </si>
+  <si>
+    <t>vixiCsPld17</t>
+  </si>
+  <si>
+    <t>17. AVALIAÇÃO DE EFETIVIDADE</t>
+  </si>
+  <si>
+    <t>17. EFFECTIVENESS EVALUATION</t>
+  </si>
+  <si>
+    <t>vixiCsPld171</t>
+  </si>
+  <si>
+    <t>17.1. A efetividade da presente Política será avaliada anualmente pela área de compliance e será consubstanciada em relatório específico.</t>
+  </si>
+  <si>
+    <t>17.1. The effectiveness of this Policy will be evaluated annually by the compliance area and will be substantiated in a specific report.</t>
+  </si>
+  <si>
+    <t>vixiCsPld172</t>
+  </si>
+  <si>
+    <t>17.2. A Vixi Exchange elaborará plano de ação destinado a solucionar eventuais deficiências da presente Política e dos procedimentos de PLD/CFT por meio da avaliação de efetividade.</t>
+  </si>
+  <si>
+    <t>17.2. Vixi Exchange will prepare an action plan to address any deficiencies in this Policy and in the PLD/CFT procedures through effectiveness evaluation.</t>
+  </si>
+  <si>
+    <t>vixiCsPld173</t>
+  </si>
+  <si>
+    <t>17.3. O acompanhamento da implementação do plano de ação será documentado por meio de relatório de acompanhamento, a ser elaborado pela área de compliance.</t>
+  </si>
+  <si>
+    <t>17.3 The follow-up of the action plan implementation will be documented by means of a follow-up report, to be prepared by the compliance area.</t>
+  </si>
+  <si>
+    <t>vixiCsPld174</t>
+  </si>
+  <si>
+    <t>17.4. Os relatórios de efetividade, os planos de ação e os relatórios de acompanhamento serão encaminhados até 30 de junho de cada ano à Diretoria da Vixi Exchange.</t>
+  </si>
+  <si>
+    <t>17.4 The effectiveness reports, action plans, and follow-up reports will be sent to the Vixi Exchange Board of Directors by June 30th of each year.</t>
+  </si>
+  <si>
+    <t>vixiCsPld178</t>
+  </si>
+  <si>
+    <t>17.8 Os sistemas de informação da Vixi Exchange serão submetidos a testes periódicos para verificação de sua adequação às diretrizes da presente Política.</t>
+  </si>
+  <si>
+    <t>17.8 The information systems of Vixi Exchange will be submitted to periodic tests to verify their adequacy to the guidelines of this Policy.</t>
+  </si>
+  <si>
+    <t>vixiCsPld18</t>
+  </si>
+  <si>
+    <t>18. APROVAÇÃO</t>
+  </si>
+  <si>
+    <t>18. APPROVAL</t>
   </si>
 </sst>
 </file>
@@ -2447,10 +4649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D528744-2A8B-4504-BCA3-D51BD78F83CA}">
-  <dimension ref="A1:F238"/>
+  <dimension ref="A1:E500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="A308" sqref="A308:E500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2459,7 +4661,7 @@
     <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2475,12 +4677,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="str">
-        <f>"INSERT INTO dictionary (dictionaryid, pt, en, zh, website) VALUES ('"&amp;A2&amp;"','"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"');"</f>
-        <v>INSERT INTO dictionary (dictionaryid, pt, en, zh, website) VALUES ('vixiCsSeg','POLÍTICA DE SEGURANÇA DA INFORMAÇÃO E CIBERNÉTICA', 'INFORMATION AND CYBER SECURITY POLICY', '??', 'VIXI');</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2497,7 +4695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2514,7 +4712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2531,7 +4729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2548,7 +4746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2565,7 +4763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2582,7 +4780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2599,7 +4797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2616,7 +4814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2633,7 +4831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2650,7 +4848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2667,7 +4865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -2684,7 +4882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2701,7 +4899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2718,7 +4916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -6489,6 +8687,4426 @@
         <v>6</v>
       </c>
       <c r="E238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>690</v>
+      </c>
+      <c r="B240" t="s">
+        <v>691</v>
+      </c>
+      <c r="C240" t="s">
+        <v>692</v>
+      </c>
+      <c r="D240" t="s">
+        <v>6</v>
+      </c>
+      <c r="E240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>693</v>
+      </c>
+      <c r="B241" s="1">
+        <v>44350</v>
+      </c>
+      <c r="C241" s="1">
+        <v>44261</v>
+      </c>
+      <c r="D241" t="s">
+        <v>6</v>
+      </c>
+      <c r="E241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>694</v>
+      </c>
+      <c r="B242" t="s">
+        <v>14</v>
+      </c>
+      <c r="C242" t="s">
+        <v>15</v>
+      </c>
+      <c r="D242" t="s">
+        <v>6</v>
+      </c>
+      <c r="E242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>695</v>
+      </c>
+      <c r="B243" t="s">
+        <v>696</v>
+      </c>
+      <c r="C243" t="s">
+        <v>697</v>
+      </c>
+      <c r="D243" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>698</v>
+      </c>
+      <c r="B244" t="s">
+        <v>23</v>
+      </c>
+      <c r="C244" t="s">
+        <v>24</v>
+      </c>
+      <c r="D244" t="s">
+        <v>6</v>
+      </c>
+      <c r="E244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>699</v>
+      </c>
+      <c r="B245" t="s">
+        <v>700</v>
+      </c>
+      <c r="C245" t="s">
+        <v>701</v>
+      </c>
+      <c r="D245" t="s">
+        <v>6</v>
+      </c>
+      <c r="E245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>702</v>
+      </c>
+      <c r="B246" t="s">
+        <v>76</v>
+      </c>
+      <c r="C246" t="s">
+        <v>77</v>
+      </c>
+      <c r="D246" t="s">
+        <v>6</v>
+      </c>
+      <c r="E246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>703</v>
+      </c>
+      <c r="B247" t="s">
+        <v>40</v>
+      </c>
+      <c r="C247" t="s">
+        <v>41</v>
+      </c>
+      <c r="D247" t="s">
+        <v>6</v>
+      </c>
+      <c r="E247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>704</v>
+      </c>
+      <c r="B248" t="s">
+        <v>42</v>
+      </c>
+      <c r="C248" t="s">
+        <v>43</v>
+      </c>
+      <c r="D248" t="s">
+        <v>6</v>
+      </c>
+      <c r="E248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>705</v>
+      </c>
+      <c r="B249" t="s">
+        <v>706</v>
+      </c>
+      <c r="C249" t="s">
+        <v>707</v>
+      </c>
+      <c r="D249" t="s">
+        <v>6</v>
+      </c>
+      <c r="E249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>708</v>
+      </c>
+      <c r="B250" t="s">
+        <v>709</v>
+      </c>
+      <c r="C250" t="s">
+        <v>710</v>
+      </c>
+      <c r="D250" t="s">
+        <v>6</v>
+      </c>
+      <c r="E250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>711</v>
+      </c>
+      <c r="B251" t="s">
+        <v>712</v>
+      </c>
+      <c r="C251" t="s">
+        <v>713</v>
+      </c>
+      <c r="D251" t="s">
+        <v>6</v>
+      </c>
+      <c r="E251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>714</v>
+      </c>
+      <c r="B252" t="s">
+        <v>715</v>
+      </c>
+      <c r="C252" t="s">
+        <v>716</v>
+      </c>
+      <c r="D252" t="s">
+        <v>6</v>
+      </c>
+      <c r="E252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>717</v>
+      </c>
+      <c r="B253" t="s">
+        <v>718</v>
+      </c>
+      <c r="C253" t="s">
+        <v>719</v>
+      </c>
+      <c r="D253" t="s">
+        <v>6</v>
+      </c>
+      <c r="E253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>720</v>
+      </c>
+      <c r="B254" t="s">
+        <v>57</v>
+      </c>
+      <c r="C254" t="s">
+        <v>58</v>
+      </c>
+      <c r="D254" t="s">
+        <v>6</v>
+      </c>
+      <c r="E254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>721</v>
+      </c>
+      <c r="B255" t="s">
+        <v>722</v>
+      </c>
+      <c r="C255" t="s">
+        <v>723</v>
+      </c>
+      <c r="D255" t="s">
+        <v>6</v>
+      </c>
+      <c r="E255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>724</v>
+      </c>
+      <c r="B256" t="s">
+        <v>725</v>
+      </c>
+      <c r="C256" t="s">
+        <v>726</v>
+      </c>
+      <c r="D256" t="s">
+        <v>6</v>
+      </c>
+      <c r="E256" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>727</v>
+      </c>
+      <c r="B257" t="s">
+        <v>728</v>
+      </c>
+      <c r="C257" t="s">
+        <v>729</v>
+      </c>
+      <c r="D257" t="s">
+        <v>6</v>
+      </c>
+      <c r="E257" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>730</v>
+      </c>
+      <c r="B258" t="s">
+        <v>731</v>
+      </c>
+      <c r="C258" t="s">
+        <v>732</v>
+      </c>
+      <c r="D258" t="s">
+        <v>6</v>
+      </c>
+      <c r="E258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>733</v>
+      </c>
+      <c r="B259" t="s">
+        <v>734</v>
+      </c>
+      <c r="C259" t="s">
+        <v>735</v>
+      </c>
+      <c r="D259" t="s">
+        <v>6</v>
+      </c>
+      <c r="E259" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>736</v>
+      </c>
+      <c r="B260" t="s">
+        <v>66</v>
+      </c>
+      <c r="C260" t="s">
+        <v>67</v>
+      </c>
+      <c r="D260" t="s">
+        <v>6</v>
+      </c>
+      <c r="E260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>737</v>
+      </c>
+      <c r="B261" t="s">
+        <v>738</v>
+      </c>
+      <c r="C261" t="s">
+        <v>739</v>
+      </c>
+      <c r="D261" t="s">
+        <v>6</v>
+      </c>
+      <c r="E261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>740</v>
+      </c>
+      <c r="B262" t="s">
+        <v>741</v>
+      </c>
+      <c r="C262" t="s">
+        <v>741</v>
+      </c>
+      <c r="D262" t="s">
+        <v>6</v>
+      </c>
+      <c r="E262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>742</v>
+      </c>
+      <c r="B263" t="s">
+        <v>743</v>
+      </c>
+      <c r="C263" t="s">
+        <v>744</v>
+      </c>
+      <c r="D263" t="s">
+        <v>6</v>
+      </c>
+      <c r="E263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>745</v>
+      </c>
+      <c r="B264" t="s">
+        <v>746</v>
+      </c>
+      <c r="C264" t="s">
+        <v>747</v>
+      </c>
+      <c r="D264" t="s">
+        <v>6</v>
+      </c>
+      <c r="E264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>748</v>
+      </c>
+      <c r="B265" t="s">
+        <v>749</v>
+      </c>
+      <c r="C265" t="s">
+        <v>750</v>
+      </c>
+      <c r="D265" t="s">
+        <v>6</v>
+      </c>
+      <c r="E265" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>751</v>
+      </c>
+      <c r="B266" t="s">
+        <v>752</v>
+      </c>
+      <c r="C266" t="s">
+        <v>753</v>
+      </c>
+      <c r="D266" t="s">
+        <v>6</v>
+      </c>
+      <c r="E266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>754</v>
+      </c>
+      <c r="B267" t="s">
+        <v>755</v>
+      </c>
+      <c r="C267" t="s">
+        <v>756</v>
+      </c>
+      <c r="D267" t="s">
+        <v>6</v>
+      </c>
+      <c r="E267" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>757</v>
+      </c>
+      <c r="B268" t="s">
+        <v>758</v>
+      </c>
+      <c r="C268" t="s">
+        <v>758</v>
+      </c>
+      <c r="D268" t="s">
+        <v>6</v>
+      </c>
+      <c r="E268" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>759</v>
+      </c>
+      <c r="B269" t="s">
+        <v>760</v>
+      </c>
+      <c r="C269" t="s">
+        <v>761</v>
+      </c>
+      <c r="D269" t="s">
+        <v>6</v>
+      </c>
+      <c r="E269" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>762</v>
+      </c>
+      <c r="B270" t="s">
+        <v>763</v>
+      </c>
+      <c r="C270" t="s">
+        <v>764</v>
+      </c>
+      <c r="D270" t="s">
+        <v>6</v>
+      </c>
+      <c r="E270" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>765</v>
+      </c>
+      <c r="B271" t="s">
+        <v>766</v>
+      </c>
+      <c r="C271" t="s">
+        <v>767</v>
+      </c>
+      <c r="D271" t="s">
+        <v>6</v>
+      </c>
+      <c r="E271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>768</v>
+      </c>
+      <c r="B272" t="s">
+        <v>769</v>
+      </c>
+      <c r="C272" t="s">
+        <v>770</v>
+      </c>
+      <c r="D272" t="s">
+        <v>6</v>
+      </c>
+      <c r="E272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>771</v>
+      </c>
+      <c r="B273" t="s">
+        <v>772</v>
+      </c>
+      <c r="C273" t="s">
+        <v>773</v>
+      </c>
+      <c r="D273" t="s">
+        <v>6</v>
+      </c>
+      <c r="E273" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>774</v>
+      </c>
+      <c r="B274" t="s">
+        <v>775</v>
+      </c>
+      <c r="C274" t="s">
+        <v>776</v>
+      </c>
+      <c r="D274" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>777</v>
+      </c>
+      <c r="B275" t="s">
+        <v>778</v>
+      </c>
+      <c r="C275" t="s">
+        <v>778</v>
+      </c>
+      <c r="D275" t="s">
+        <v>6</v>
+      </c>
+      <c r="E275" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>779</v>
+      </c>
+      <c r="B276" t="s">
+        <v>780</v>
+      </c>
+      <c r="C276" t="s">
+        <v>781</v>
+      </c>
+      <c r="D276" t="s">
+        <v>6</v>
+      </c>
+      <c r="E276" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>782</v>
+      </c>
+      <c r="B277" t="s">
+        <v>783</v>
+      </c>
+      <c r="C277" t="s">
+        <v>784</v>
+      </c>
+      <c r="D277" t="s">
+        <v>6</v>
+      </c>
+      <c r="E277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>785</v>
+      </c>
+      <c r="B278" t="s">
+        <v>786</v>
+      </c>
+      <c r="C278" t="s">
+        <v>787</v>
+      </c>
+      <c r="D278" t="s">
+        <v>6</v>
+      </c>
+      <c r="E278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>788</v>
+      </c>
+      <c r="B279" t="s">
+        <v>789</v>
+      </c>
+      <c r="C279" t="s">
+        <v>790</v>
+      </c>
+      <c r="D279" t="s">
+        <v>6</v>
+      </c>
+      <c r="E279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>791</v>
+      </c>
+      <c r="B280" t="s">
+        <v>792</v>
+      </c>
+      <c r="C280" t="s">
+        <v>793</v>
+      </c>
+      <c r="D280" t="s">
+        <v>6</v>
+      </c>
+      <c r="E280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>794</v>
+      </c>
+      <c r="B281" t="s">
+        <v>795</v>
+      </c>
+      <c r="C281" t="s">
+        <v>796</v>
+      </c>
+      <c r="D281" t="s">
+        <v>6</v>
+      </c>
+      <c r="E281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>797</v>
+      </c>
+      <c r="B282" t="s">
+        <v>798</v>
+      </c>
+      <c r="C282" t="s">
+        <v>799</v>
+      </c>
+      <c r="D282" t="s">
+        <v>6</v>
+      </c>
+      <c r="E282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>800</v>
+      </c>
+      <c r="B283" t="s">
+        <v>801</v>
+      </c>
+      <c r="C283" t="s">
+        <v>802</v>
+      </c>
+      <c r="D283" t="s">
+        <v>6</v>
+      </c>
+      <c r="E283" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>803</v>
+      </c>
+      <c r="B284" t="s">
+        <v>804</v>
+      </c>
+      <c r="C284" t="s">
+        <v>805</v>
+      </c>
+      <c r="D284" t="s">
+        <v>6</v>
+      </c>
+      <c r="E284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>806</v>
+      </c>
+      <c r="B285" t="s">
+        <v>807</v>
+      </c>
+      <c r="C285" t="s">
+        <v>808</v>
+      </c>
+      <c r="D285" t="s">
+        <v>6</v>
+      </c>
+      <c r="E285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>809</v>
+      </c>
+      <c r="B286" t="s">
+        <v>810</v>
+      </c>
+      <c r="C286" t="s">
+        <v>811</v>
+      </c>
+      <c r="D286" t="s">
+        <v>6</v>
+      </c>
+      <c r="E286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>812</v>
+      </c>
+      <c r="B287" t="s">
+        <v>813</v>
+      </c>
+      <c r="C287" t="s">
+        <v>814</v>
+      </c>
+      <c r="D287" t="s">
+        <v>6</v>
+      </c>
+      <c r="E287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>815</v>
+      </c>
+      <c r="B288" t="s">
+        <v>816</v>
+      </c>
+      <c r="C288" t="s">
+        <v>817</v>
+      </c>
+      <c r="D288" t="s">
+        <v>6</v>
+      </c>
+      <c r="E288" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>818</v>
+      </c>
+      <c r="B289" t="s">
+        <v>819</v>
+      </c>
+      <c r="C289" t="s">
+        <v>820</v>
+      </c>
+      <c r="D289" t="s">
+        <v>6</v>
+      </c>
+      <c r="E289" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>821</v>
+      </c>
+      <c r="B290" t="s">
+        <v>822</v>
+      </c>
+      <c r="C290" t="s">
+        <v>823</v>
+      </c>
+      <c r="D290" t="s">
+        <v>6</v>
+      </c>
+      <c r="E290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>824</v>
+      </c>
+      <c r="B291" t="s">
+        <v>825</v>
+      </c>
+      <c r="C291" t="s">
+        <v>826</v>
+      </c>
+      <c r="D291" t="s">
+        <v>6</v>
+      </c>
+      <c r="E291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>827</v>
+      </c>
+      <c r="B292" t="s">
+        <v>828</v>
+      </c>
+      <c r="C292" t="s">
+        <v>829</v>
+      </c>
+      <c r="D292" t="s">
+        <v>6</v>
+      </c>
+      <c r="E292" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>830</v>
+      </c>
+      <c r="B293" t="s">
+        <v>831</v>
+      </c>
+      <c r="C293" t="s">
+        <v>832</v>
+      </c>
+      <c r="D293" t="s">
+        <v>6</v>
+      </c>
+      <c r="E293" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>833</v>
+      </c>
+      <c r="B294" t="s">
+        <v>834</v>
+      </c>
+      <c r="C294" t="s">
+        <v>835</v>
+      </c>
+      <c r="D294" t="s">
+        <v>6</v>
+      </c>
+      <c r="E294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>836</v>
+      </c>
+      <c r="B295" t="s">
+        <v>837</v>
+      </c>
+      <c r="C295" t="s">
+        <v>838</v>
+      </c>
+      <c r="D295" t="s">
+        <v>6</v>
+      </c>
+      <c r="E295" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>839</v>
+      </c>
+      <c r="B296" t="s">
+        <v>840</v>
+      </c>
+      <c r="C296" t="s">
+        <v>841</v>
+      </c>
+      <c r="D296" t="s">
+        <v>6</v>
+      </c>
+      <c r="E296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>842</v>
+      </c>
+      <c r="B297" t="s">
+        <v>843</v>
+      </c>
+      <c r="C297" t="s">
+        <v>844</v>
+      </c>
+      <c r="D297" t="s">
+        <v>6</v>
+      </c>
+      <c r="E297" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>845</v>
+      </c>
+      <c r="B298" t="s">
+        <v>846</v>
+      </c>
+      <c r="C298" t="s">
+        <v>847</v>
+      </c>
+      <c r="D298" t="s">
+        <v>6</v>
+      </c>
+      <c r="E298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>848</v>
+      </c>
+      <c r="B299" t="s">
+        <v>849</v>
+      </c>
+      <c r="C299" t="s">
+        <v>850</v>
+      </c>
+      <c r="D299" t="s">
+        <v>6</v>
+      </c>
+      <c r="E299" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>851</v>
+      </c>
+      <c r="B300" t="s">
+        <v>852</v>
+      </c>
+      <c r="C300" t="s">
+        <v>853</v>
+      </c>
+      <c r="D300" t="s">
+        <v>6</v>
+      </c>
+      <c r="E300" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>854</v>
+      </c>
+      <c r="B301" t="s">
+        <v>855</v>
+      </c>
+      <c r="C301" t="s">
+        <v>856</v>
+      </c>
+      <c r="D301" t="s">
+        <v>6</v>
+      </c>
+      <c r="E301" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>857</v>
+      </c>
+      <c r="B302" t="s">
+        <v>858</v>
+      </c>
+      <c r="C302" t="s">
+        <v>859</v>
+      </c>
+      <c r="D302" t="s">
+        <v>6</v>
+      </c>
+      <c r="E302" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>860</v>
+      </c>
+      <c r="B303" t="s">
+        <v>861</v>
+      </c>
+      <c r="C303" t="s">
+        <v>862</v>
+      </c>
+      <c r="D303" t="s">
+        <v>6</v>
+      </c>
+      <c r="E303" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>863</v>
+      </c>
+      <c r="B304" t="s">
+        <v>864</v>
+      </c>
+      <c r="C304" t="s">
+        <v>865</v>
+      </c>
+      <c r="D304" t="s">
+        <v>6</v>
+      </c>
+      <c r="E304" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>866</v>
+      </c>
+      <c r="B305" t="s">
+        <v>867</v>
+      </c>
+      <c r="C305" t="s">
+        <v>868</v>
+      </c>
+      <c r="D305" t="s">
+        <v>6</v>
+      </c>
+      <c r="E305" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>869</v>
+      </c>
+      <c r="B306" t="s">
+        <v>870</v>
+      </c>
+      <c r="C306" t="s">
+        <v>871</v>
+      </c>
+      <c r="D306" t="s">
+        <v>6</v>
+      </c>
+      <c r="E306" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>872</v>
+      </c>
+      <c r="B308" t="s">
+        <v>873</v>
+      </c>
+      <c r="C308" t="s">
+        <v>874</v>
+      </c>
+      <c r="D308" t="s">
+        <v>6</v>
+      </c>
+      <c r="E308" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>875</v>
+      </c>
+      <c r="B309" s="1">
+        <v>44350</v>
+      </c>
+      <c r="C309" s="1">
+        <v>44261</v>
+      </c>
+      <c r="D309" t="s">
+        <v>6</v>
+      </c>
+      <c r="E309" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>876</v>
+      </c>
+      <c r="B310" t="s">
+        <v>14</v>
+      </c>
+      <c r="C310" t="s">
+        <v>15</v>
+      </c>
+      <c r="D310" t="s">
+        <v>6</v>
+      </c>
+      <c r="E310" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>877</v>
+      </c>
+      <c r="B311" t="s">
+        <v>878</v>
+      </c>
+      <c r="C311" t="s">
+        <v>879</v>
+      </c>
+      <c r="D311" t="s">
+        <v>6</v>
+      </c>
+      <c r="E311" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>880</v>
+      </c>
+      <c r="B312" t="s">
+        <v>23</v>
+      </c>
+      <c r="C312" t="s">
+        <v>24</v>
+      </c>
+      <c r="D312" t="s">
+        <v>6</v>
+      </c>
+      <c r="E312" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>881</v>
+      </c>
+      <c r="B313" t="s">
+        <v>882</v>
+      </c>
+      <c r="C313" t="s">
+        <v>883</v>
+      </c>
+      <c r="D313" t="s">
+        <v>6</v>
+      </c>
+      <c r="E313" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>884</v>
+      </c>
+      <c r="B314" t="s">
+        <v>76</v>
+      </c>
+      <c r="C314" t="s">
+        <v>77</v>
+      </c>
+      <c r="D314" t="s">
+        <v>6</v>
+      </c>
+      <c r="E314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>885</v>
+      </c>
+      <c r="B315" t="s">
+        <v>886</v>
+      </c>
+      <c r="C315" t="s">
+        <v>887</v>
+      </c>
+      <c r="D315" t="s">
+        <v>6</v>
+      </c>
+      <c r="E315" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>888</v>
+      </c>
+      <c r="B316" t="s">
+        <v>40</v>
+      </c>
+      <c r="C316" t="s">
+        <v>41</v>
+      </c>
+      <c r="D316" t="s">
+        <v>6</v>
+      </c>
+      <c r="E316" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>889</v>
+      </c>
+      <c r="B317" t="s">
+        <v>890</v>
+      </c>
+      <c r="C317" t="s">
+        <v>891</v>
+      </c>
+      <c r="D317" t="s">
+        <v>6</v>
+      </c>
+      <c r="E317" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>892</v>
+      </c>
+      <c r="B318" t="s">
+        <v>893</v>
+      </c>
+      <c r="C318" t="s">
+        <v>894</v>
+      </c>
+      <c r="D318" t="s">
+        <v>6</v>
+      </c>
+      <c r="E318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>895</v>
+      </c>
+      <c r="B319" t="s">
+        <v>42</v>
+      </c>
+      <c r="C319" t="s">
+        <v>43</v>
+      </c>
+      <c r="D319" t="s">
+        <v>6</v>
+      </c>
+      <c r="E319" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>896</v>
+      </c>
+      <c r="B320" t="s">
+        <v>897</v>
+      </c>
+      <c r="C320" t="s">
+        <v>898</v>
+      </c>
+      <c r="D320" t="s">
+        <v>6</v>
+      </c>
+      <c r="E320" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>899</v>
+      </c>
+      <c r="B321" t="s">
+        <v>46</v>
+      </c>
+      <c r="C321" t="s">
+        <v>47</v>
+      </c>
+      <c r="D321" t="s">
+        <v>6</v>
+      </c>
+      <c r="E321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>900</v>
+      </c>
+      <c r="B322" t="s">
+        <v>901</v>
+      </c>
+      <c r="C322" t="s">
+        <v>902</v>
+      </c>
+      <c r="D322" t="s">
+        <v>6</v>
+      </c>
+      <c r="E322" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>903</v>
+      </c>
+      <c r="B323" t="s">
+        <v>904</v>
+      </c>
+      <c r="C323" t="s">
+        <v>905</v>
+      </c>
+      <c r="D323" t="s">
+        <v>6</v>
+      </c>
+      <c r="E323" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>906</v>
+      </c>
+      <c r="B324" t="s">
+        <v>907</v>
+      </c>
+      <c r="C324" t="s">
+        <v>908</v>
+      </c>
+      <c r="D324" t="s">
+        <v>6</v>
+      </c>
+      <c r="E324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>909</v>
+      </c>
+      <c r="B325" t="s">
+        <v>910</v>
+      </c>
+      <c r="C325" t="s">
+        <v>910</v>
+      </c>
+      <c r="D325" t="s">
+        <v>6</v>
+      </c>
+      <c r="E325" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>911</v>
+      </c>
+      <c r="B326" t="s">
+        <v>912</v>
+      </c>
+      <c r="C326" t="s">
+        <v>913</v>
+      </c>
+      <c r="D326" t="s">
+        <v>6</v>
+      </c>
+      <c r="E326" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>914</v>
+      </c>
+      <c r="B327" t="s">
+        <v>57</v>
+      </c>
+      <c r="C327" t="s">
+        <v>58</v>
+      </c>
+      <c r="D327" t="s">
+        <v>6</v>
+      </c>
+      <c r="E327" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>915</v>
+      </c>
+      <c r="B328" t="s">
+        <v>916</v>
+      </c>
+      <c r="C328" t="s">
+        <v>917</v>
+      </c>
+      <c r="D328" t="s">
+        <v>6</v>
+      </c>
+      <c r="E328" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>918</v>
+      </c>
+      <c r="B329" t="s">
+        <v>61</v>
+      </c>
+      <c r="C329" t="s">
+        <v>62</v>
+      </c>
+      <c r="D329" t="s">
+        <v>6</v>
+      </c>
+      <c r="E329" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>919</v>
+      </c>
+      <c r="B330" t="s">
+        <v>920</v>
+      </c>
+      <c r="C330" t="s">
+        <v>921</v>
+      </c>
+      <c r="D330" t="s">
+        <v>6</v>
+      </c>
+      <c r="E330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>922</v>
+      </c>
+      <c r="B331" t="s">
+        <v>923</v>
+      </c>
+      <c r="C331" t="s">
+        <v>924</v>
+      </c>
+      <c r="D331" t="s">
+        <v>6</v>
+      </c>
+      <c r="E331" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>925</v>
+      </c>
+      <c r="B332" t="s">
+        <v>926</v>
+      </c>
+      <c r="C332" t="s">
+        <v>927</v>
+      </c>
+      <c r="D332" t="s">
+        <v>6</v>
+      </c>
+      <c r="E332" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>928</v>
+      </c>
+      <c r="B333" t="s">
+        <v>929</v>
+      </c>
+      <c r="C333" t="s">
+        <v>930</v>
+      </c>
+      <c r="D333" t="s">
+        <v>6</v>
+      </c>
+      <c r="E333" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>931</v>
+      </c>
+      <c r="B334" t="s">
+        <v>932</v>
+      </c>
+      <c r="C334" t="s">
+        <v>933</v>
+      </c>
+      <c r="D334" t="s">
+        <v>6</v>
+      </c>
+      <c r="E334" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>934</v>
+      </c>
+      <c r="B335" t="s">
+        <v>935</v>
+      </c>
+      <c r="C335" t="s">
+        <v>936</v>
+      </c>
+      <c r="D335" t="s">
+        <v>6</v>
+      </c>
+      <c r="E335" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>937</v>
+      </c>
+      <c r="B336" t="s">
+        <v>938</v>
+      </c>
+      <c r="C336" t="s">
+        <v>939</v>
+      </c>
+      <c r="D336" t="s">
+        <v>6</v>
+      </c>
+      <c r="E336" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>940</v>
+      </c>
+      <c r="B337" t="s">
+        <v>941</v>
+      </c>
+      <c r="C337" t="s">
+        <v>942</v>
+      </c>
+      <c r="D337" t="s">
+        <v>6</v>
+      </c>
+      <c r="E337" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>943</v>
+      </c>
+      <c r="B338" t="s">
+        <v>944</v>
+      </c>
+      <c r="C338" t="s">
+        <v>945</v>
+      </c>
+      <c r="D338" t="s">
+        <v>6</v>
+      </c>
+      <c r="E338" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>946</v>
+      </c>
+      <c r="B339" t="s">
+        <v>947</v>
+      </c>
+      <c r="C339" t="s">
+        <v>948</v>
+      </c>
+      <c r="D339" t="s">
+        <v>6</v>
+      </c>
+      <c r="E339" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>949</v>
+      </c>
+      <c r="B340" t="s">
+        <v>950</v>
+      </c>
+      <c r="C340" t="s">
+        <v>951</v>
+      </c>
+      <c r="D340" t="s">
+        <v>6</v>
+      </c>
+      <c r="E340" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>952</v>
+      </c>
+      <c r="B341" t="s">
+        <v>953</v>
+      </c>
+      <c r="C341" t="s">
+        <v>954</v>
+      </c>
+      <c r="D341" t="s">
+        <v>6</v>
+      </c>
+      <c r="E341" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>955</v>
+      </c>
+      <c r="B342" t="s">
+        <v>956</v>
+      </c>
+      <c r="C342" t="s">
+        <v>957</v>
+      </c>
+      <c r="D342" t="s">
+        <v>6</v>
+      </c>
+      <c r="E342" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>958</v>
+      </c>
+      <c r="B343" t="s">
+        <v>959</v>
+      </c>
+      <c r="C343" t="s">
+        <v>960</v>
+      </c>
+      <c r="D343" t="s">
+        <v>6</v>
+      </c>
+      <c r="E343" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>961</v>
+      </c>
+      <c r="B344" t="s">
+        <v>962</v>
+      </c>
+      <c r="C344" t="s">
+        <v>962</v>
+      </c>
+      <c r="D344" t="s">
+        <v>6</v>
+      </c>
+      <c r="E344" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>963</v>
+      </c>
+      <c r="B345" t="s">
+        <v>964</v>
+      </c>
+      <c r="C345" t="s">
+        <v>965</v>
+      </c>
+      <c r="D345" t="s">
+        <v>6</v>
+      </c>
+      <c r="E345" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>966</v>
+      </c>
+      <c r="B346" t="s">
+        <v>867</v>
+      </c>
+      <c r="C346" t="s">
+        <v>868</v>
+      </c>
+      <c r="D346" t="s">
+        <v>6</v>
+      </c>
+      <c r="E346" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>967</v>
+      </c>
+      <c r="B347" t="s">
+        <v>968</v>
+      </c>
+      <c r="C347" t="s">
+        <v>969</v>
+      </c>
+      <c r="D347" t="s">
+        <v>6</v>
+      </c>
+      <c r="E347" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>970</v>
+      </c>
+      <c r="B348" t="s">
+        <v>971</v>
+      </c>
+      <c r="C348" t="s">
+        <v>972</v>
+      </c>
+      <c r="D348" t="s">
+        <v>6</v>
+      </c>
+      <c r="E348" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>973</v>
+      </c>
+      <c r="B349" t="s">
+        <v>974</v>
+      </c>
+      <c r="C349" t="s">
+        <v>975</v>
+      </c>
+      <c r="D349" t="s">
+        <v>6</v>
+      </c>
+      <c r="E349" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>976</v>
+      </c>
+      <c r="B350" t="s">
+        <v>977</v>
+      </c>
+      <c r="C350" t="s">
+        <v>978</v>
+      </c>
+      <c r="D350" t="s">
+        <v>6</v>
+      </c>
+      <c r="E350" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>979</v>
+      </c>
+      <c r="B351" t="s">
+        <v>980</v>
+      </c>
+      <c r="C351" t="s">
+        <v>981</v>
+      </c>
+      <c r="D351" t="s">
+        <v>6</v>
+      </c>
+      <c r="E351" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>982</v>
+      </c>
+      <c r="B352" t="s">
+        <v>983</v>
+      </c>
+      <c r="C352" t="s">
+        <v>984</v>
+      </c>
+      <c r="D352" t="s">
+        <v>6</v>
+      </c>
+      <c r="E352" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>985</v>
+      </c>
+      <c r="B353" t="s">
+        <v>986</v>
+      </c>
+      <c r="C353" t="s">
+        <v>987</v>
+      </c>
+      <c r="D353" t="s">
+        <v>6</v>
+      </c>
+      <c r="E353" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>988</v>
+      </c>
+      <c r="B354" t="s">
+        <v>989</v>
+      </c>
+      <c r="C354" t="s">
+        <v>990</v>
+      </c>
+      <c r="D354" t="s">
+        <v>6</v>
+      </c>
+      <c r="E354" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>991</v>
+      </c>
+      <c r="B355" t="s">
+        <v>992</v>
+      </c>
+      <c r="C355" t="s">
+        <v>993</v>
+      </c>
+      <c r="D355" t="s">
+        <v>6</v>
+      </c>
+      <c r="E355" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>994</v>
+      </c>
+      <c r="B356" t="s">
+        <v>995</v>
+      </c>
+      <c r="C356" t="s">
+        <v>996</v>
+      </c>
+      <c r="D356" t="s">
+        <v>6</v>
+      </c>
+      <c r="E356" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>997</v>
+      </c>
+      <c r="B357" t="s">
+        <v>998</v>
+      </c>
+      <c r="C357" t="s">
+        <v>999</v>
+      </c>
+      <c r="D357" t="s">
+        <v>6</v>
+      </c>
+      <c r="E357" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D358" t="s">
+        <v>6</v>
+      </c>
+      <c r="E358" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D359" t="s">
+        <v>6</v>
+      </c>
+      <c r="E359" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D360" t="s">
+        <v>6</v>
+      </c>
+      <c r="E360" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D361" t="s">
+        <v>6</v>
+      </c>
+      <c r="E361" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D362" t="s">
+        <v>6</v>
+      </c>
+      <c r="E362" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D363" t="s">
+        <v>6</v>
+      </c>
+      <c r="E363" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D364" t="s">
+        <v>6</v>
+      </c>
+      <c r="E364" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D365" t="s">
+        <v>6</v>
+      </c>
+      <c r="E365" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D366" t="s">
+        <v>6</v>
+      </c>
+      <c r="E366" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D367" t="s">
+        <v>6</v>
+      </c>
+      <c r="E367" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D368" t="s">
+        <v>6</v>
+      </c>
+      <c r="E368" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D369" t="s">
+        <v>6</v>
+      </c>
+      <c r="E369" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D370" t="s">
+        <v>6</v>
+      </c>
+      <c r="E370" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D371" t="s">
+        <v>6</v>
+      </c>
+      <c r="E371" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D372" t="s">
+        <v>6</v>
+      </c>
+      <c r="E372" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D373" t="s">
+        <v>6</v>
+      </c>
+      <c r="E373" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D374" t="s">
+        <v>6</v>
+      </c>
+      <c r="E374" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D375" t="s">
+        <v>6</v>
+      </c>
+      <c r="E375" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D376" t="s">
+        <v>6</v>
+      </c>
+      <c r="E376" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D377" t="s">
+        <v>6</v>
+      </c>
+      <c r="E377" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D378" t="s">
+        <v>6</v>
+      </c>
+      <c r="E378" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D379" t="s">
+        <v>6</v>
+      </c>
+      <c r="E379" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D380" t="s">
+        <v>6</v>
+      </c>
+      <c r="E380" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D381" t="s">
+        <v>6</v>
+      </c>
+      <c r="E381" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D382" t="s">
+        <v>6</v>
+      </c>
+      <c r="E382" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D383" t="s">
+        <v>6</v>
+      </c>
+      <c r="E383" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D384" t="s">
+        <v>6</v>
+      </c>
+      <c r="E384" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D385" t="s">
+        <v>6</v>
+      </c>
+      <c r="E385" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D386" t="s">
+        <v>6</v>
+      </c>
+      <c r="E386" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D387" t="s">
+        <v>6</v>
+      </c>
+      <c r="E387" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D388" t="s">
+        <v>6</v>
+      </c>
+      <c r="E388" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D389" t="s">
+        <v>6</v>
+      </c>
+      <c r="E389" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D390" t="s">
+        <v>6</v>
+      </c>
+      <c r="E390" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D391" t="s">
+        <v>6</v>
+      </c>
+      <c r="E391" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D392" t="s">
+        <v>6</v>
+      </c>
+      <c r="E392" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D393" t="s">
+        <v>6</v>
+      </c>
+      <c r="E393" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D394" t="s">
+        <v>6</v>
+      </c>
+      <c r="E394" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D395" t="s">
+        <v>6</v>
+      </c>
+      <c r="E395" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D396" t="s">
+        <v>6</v>
+      </c>
+      <c r="E396" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D397" t="s">
+        <v>6</v>
+      </c>
+      <c r="E397" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D398" t="s">
+        <v>6</v>
+      </c>
+      <c r="E398" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D399" t="s">
+        <v>6</v>
+      </c>
+      <c r="E399" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D400" t="s">
+        <v>6</v>
+      </c>
+      <c r="E400" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D401" t="s">
+        <v>6</v>
+      </c>
+      <c r="E401" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D402" t="s">
+        <v>6</v>
+      </c>
+      <c r="E402" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D403" t="s">
+        <v>6</v>
+      </c>
+      <c r="E403" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D404" t="s">
+        <v>6</v>
+      </c>
+      <c r="E404" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D405" t="s">
+        <v>6</v>
+      </c>
+      <c r="E405" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D406" t="s">
+        <v>6</v>
+      </c>
+      <c r="E406" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D407" t="s">
+        <v>6</v>
+      </c>
+      <c r="E407" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D408" t="s">
+        <v>6</v>
+      </c>
+      <c r="E408" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D409" t="s">
+        <v>6</v>
+      </c>
+      <c r="E409" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D410" t="s">
+        <v>6</v>
+      </c>
+      <c r="E410" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D411" t="s">
+        <v>6</v>
+      </c>
+      <c r="E411" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D412" t="s">
+        <v>6</v>
+      </c>
+      <c r="E412" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D413" t="s">
+        <v>6</v>
+      </c>
+      <c r="E413" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D414" t="s">
+        <v>6</v>
+      </c>
+      <c r="E414" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D415" t="s">
+        <v>6</v>
+      </c>
+      <c r="E415" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D416" t="s">
+        <v>6</v>
+      </c>
+      <c r="E416" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D417" t="s">
+        <v>6</v>
+      </c>
+      <c r="E417" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D418" t="s">
+        <v>6</v>
+      </c>
+      <c r="E418" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D419" t="s">
+        <v>6</v>
+      </c>
+      <c r="E419" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D420" t="s">
+        <v>6</v>
+      </c>
+      <c r="E420" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D421" t="s">
+        <v>6</v>
+      </c>
+      <c r="E421" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D422" t="s">
+        <v>6</v>
+      </c>
+      <c r="E422" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D423" t="s">
+        <v>6</v>
+      </c>
+      <c r="E423" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D424" t="s">
+        <v>6</v>
+      </c>
+      <c r="E424" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D425" t="s">
+        <v>6</v>
+      </c>
+      <c r="E425" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D426" t="s">
+        <v>6</v>
+      </c>
+      <c r="E426" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D427" t="s">
+        <v>6</v>
+      </c>
+      <c r="E427" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D428" t="s">
+        <v>6</v>
+      </c>
+      <c r="E428" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D429" t="s">
+        <v>6</v>
+      </c>
+      <c r="E429" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D430" t="s">
+        <v>6</v>
+      </c>
+      <c r="E430" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D431" t="s">
+        <v>6</v>
+      </c>
+      <c r="E431" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D432" t="s">
+        <v>6</v>
+      </c>
+      <c r="E432" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D433" t="s">
+        <v>6</v>
+      </c>
+      <c r="E433" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D434" t="s">
+        <v>6</v>
+      </c>
+      <c r="E434" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D435" t="s">
+        <v>6</v>
+      </c>
+      <c r="E435" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D436" t="s">
+        <v>6</v>
+      </c>
+      <c r="E436" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D437" t="s">
+        <v>6</v>
+      </c>
+      <c r="E437" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D438" t="s">
+        <v>6</v>
+      </c>
+      <c r="E438" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D439" t="s">
+        <v>6</v>
+      </c>
+      <c r="E439" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D440" t="s">
+        <v>6</v>
+      </c>
+      <c r="E440" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D441" t="s">
+        <v>6</v>
+      </c>
+      <c r="E441" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D442" t="s">
+        <v>6</v>
+      </c>
+      <c r="E442" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D443" t="s">
+        <v>6</v>
+      </c>
+      <c r="E443" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D444" t="s">
+        <v>6</v>
+      </c>
+      <c r="E444" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D445" t="s">
+        <v>6</v>
+      </c>
+      <c r="E445" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D446" t="s">
+        <v>6</v>
+      </c>
+      <c r="E446" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D447" t="s">
+        <v>6</v>
+      </c>
+      <c r="E447" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D448" t="s">
+        <v>6</v>
+      </c>
+      <c r="E448" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D449" t="s">
+        <v>6</v>
+      </c>
+      <c r="E449" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D450" t="s">
+        <v>6</v>
+      </c>
+      <c r="E450" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D451" t="s">
+        <v>6</v>
+      </c>
+      <c r="E451" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D452" t="s">
+        <v>6</v>
+      </c>
+      <c r="E452" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D453" t="s">
+        <v>6</v>
+      </c>
+      <c r="E453" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D454" t="s">
+        <v>6</v>
+      </c>
+      <c r="E454" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D455" t="s">
+        <v>6</v>
+      </c>
+      <c r="E455" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D456" t="s">
+        <v>6</v>
+      </c>
+      <c r="E456" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D457" t="s">
+        <v>6</v>
+      </c>
+      <c r="E457" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D458" t="s">
+        <v>6</v>
+      </c>
+      <c r="E458" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D459" t="s">
+        <v>6</v>
+      </c>
+      <c r="E459" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D460" t="s">
+        <v>6</v>
+      </c>
+      <c r="E460" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D461" t="s">
+        <v>6</v>
+      </c>
+      <c r="E461" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D462" t="s">
+        <v>6</v>
+      </c>
+      <c r="E462" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D463" t="s">
+        <v>6</v>
+      </c>
+      <c r="E463" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D464" t="s">
+        <v>6</v>
+      </c>
+      <c r="E464" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D465" t="s">
+        <v>6</v>
+      </c>
+      <c r="E465" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D466" t="s">
+        <v>6</v>
+      </c>
+      <c r="E466" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D467" t="s">
+        <v>6</v>
+      </c>
+      <c r="E467" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D468" t="s">
+        <v>6</v>
+      </c>
+      <c r="E468" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D469" t="s">
+        <v>6</v>
+      </c>
+      <c r="E469" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D470" t="s">
+        <v>6</v>
+      </c>
+      <c r="E470" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D471" t="s">
+        <v>6</v>
+      </c>
+      <c r="E471" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D472" t="s">
+        <v>6</v>
+      </c>
+      <c r="E472" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D473" t="s">
+        <v>6</v>
+      </c>
+      <c r="E473" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D474" t="s">
+        <v>6</v>
+      </c>
+      <c r="E474" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D475" t="s">
+        <v>6</v>
+      </c>
+      <c r="E475" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D476" t="s">
+        <v>6</v>
+      </c>
+      <c r="E476" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D477" t="s">
+        <v>6</v>
+      </c>
+      <c r="E477" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D478" t="s">
+        <v>6</v>
+      </c>
+      <c r="E478" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D479" t="s">
+        <v>6</v>
+      </c>
+      <c r="E479" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D480" t="s">
+        <v>6</v>
+      </c>
+      <c r="E480" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D481" t="s">
+        <v>6</v>
+      </c>
+      <c r="E481" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D482" t="s">
+        <v>6</v>
+      </c>
+      <c r="E482" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D483" t="s">
+        <v>6</v>
+      </c>
+      <c r="E483" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D484" t="s">
+        <v>6</v>
+      </c>
+      <c r="E484" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D485" t="s">
+        <v>6</v>
+      </c>
+      <c r="E485" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D486" t="s">
+        <v>6</v>
+      </c>
+      <c r="E486" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D487" t="s">
+        <v>6</v>
+      </c>
+      <c r="E487" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D488" t="s">
+        <v>6</v>
+      </c>
+      <c r="E488" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D489" t="s">
+        <v>6</v>
+      </c>
+      <c r="E489" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D490" t="s">
+        <v>6</v>
+      </c>
+      <c r="E490" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D491" t="s">
+        <v>6</v>
+      </c>
+      <c r="E491" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D492" t="s">
+        <v>6</v>
+      </c>
+      <c r="E492" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D493" t="s">
+        <v>6</v>
+      </c>
+      <c r="E493" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D494" t="s">
+        <v>6</v>
+      </c>
+      <c r="E494" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D495" t="s">
+        <v>6</v>
+      </c>
+      <c r="E495" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D496" t="s">
+        <v>6</v>
+      </c>
+      <c r="E496" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D497" t="s">
+        <v>6</v>
+      </c>
+      <c r="E497" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D498" t="s">
+        <v>6</v>
+      </c>
+      <c r="E498" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D499" t="s">
+        <v>6</v>
+      </c>
+      <c r="E499" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>687</v>
+      </c>
+      <c r="B500" t="s">
+        <v>688</v>
+      </c>
+      <c r="C500" t="s">
+        <v>689</v>
+      </c>
+      <c r="D500" t="s">
+        <v>6</v>
+      </c>
+      <c r="E500" t="s">
         <v>5</v>
       </c>
     </row>
